--- a/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14416606908413</v>
+        <v>21.14416606908421</v>
       </c>
       <c r="C2">
-        <v>20.51913744145368</v>
+        <v>20.5191374414537</v>
       </c>
       <c r="D2">
-        <v>7.304071600413978</v>
+        <v>7.304071600413963</v>
       </c>
       <c r="E2">
-        <v>30.21443585021826</v>
+        <v>30.21443585021825</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.70313754599269</v>
+        <v>35.70313754599266</v>
       </c>
       <c r="H2">
-        <v>28.90722778260738</v>
+        <v>28.90722778260735</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>20.55738162531851</v>
+        <v>20.5573816253186</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.59643804445628</v>
+        <v>19.59643804445629</v>
       </c>
       <c r="C3">
-        <v>18.97544034670045</v>
+        <v>18.97544034670054</v>
       </c>
       <c r="D3">
-        <v>6.766629166216358</v>
+        <v>6.766629166216312</v>
       </c>
       <c r="E3">
-        <v>27.87914868520524</v>
+        <v>27.87914868520521</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.68492091431111</v>
+        <v>33.68492091431106</v>
       </c>
       <c r="H3">
-        <v>27.5119051931936</v>
+        <v>27.51190519319357</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.06711109234361</v>
+        <v>19.06711109234366</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60395399878776</v>
+        <v>18.60395399878779</v>
       </c>
       <c r="C4">
-        <v>17.98882893971373</v>
+        <v>17.98882893971377</v>
       </c>
       <c r="D4">
-        <v>6.422126415430972</v>
+        <v>6.422126415431048</v>
       </c>
       <c r="E4">
-        <v>26.3955719185441</v>
+        <v>26.39557191854411</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.43410875777999</v>
+        <v>32.43410875778002</v>
       </c>
       <c r="H4">
-        <v>26.65668414369051</v>
+        <v>26.65668414369054</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.1126461900594</v>
+        <v>18.11264619005941</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18853441985132</v>
+        <v>18.1885344198513</v>
       </c>
       <c r="C5">
-        <v>17.57660697424145</v>
+        <v>17.5766069742415</v>
       </c>
       <c r="D5">
-        <v>6.277966805419884</v>
+        <v>6.277966805419879</v>
       </c>
       <c r="E5">
-        <v>25.77764528091792</v>
+        <v>25.77764528091802</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.92150820839987</v>
+        <v>31.92150820839985</v>
       </c>
       <c r="H5">
-        <v>26.30855059132774</v>
+        <v>26.30855059132775</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.71341020640839</v>
+        <v>17.71341020640838</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11888142318379</v>
+        <v>18.11888142318373</v>
       </c>
       <c r="C6">
-        <v>17.50753224510384</v>
+        <v>17.50753224510374</v>
       </c>
       <c r="D6">
-        <v>6.253798032353052</v>
+        <v>6.253798032353125</v>
       </c>
       <c r="E6">
-        <v>25.67420919781971</v>
+        <v>25.67420919781978</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.83622124937466</v>
+        <v>31.83622124937467</v>
       </c>
       <c r="H6">
         <v>26.25076768037175</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.64648628043748</v>
+        <v>17.6464862804374</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59839640011936</v>
+        <v>18.59839640011951</v>
       </c>
       <c r="C7">
-        <v>17.98331126704792</v>
+        <v>17.98331126704812</v>
       </c>
       <c r="D7">
-        <v>6.420197654722848</v>
+        <v>6.420197654722802</v>
       </c>
       <c r="E7">
-        <v>26.38729348427037</v>
+        <v>26.38729348427043</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.42720715966799</v>
+        <v>32.42720715966797</v>
       </c>
       <c r="H7">
-        <v>26.65198750665911</v>
+        <v>26.65198750665909</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.10730404939228</v>
+        <v>18.10730404939243</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61902680308445</v>
+        <v>20.61902680308459</v>
       </c>
       <c r="C8">
-        <v>19.99464974072687</v>
+        <v>19.9946497407268</v>
       </c>
       <c r="D8">
-        <v>7.121694929698942</v>
+        <v>7.12169492969896</v>
       </c>
       <c r="E8">
-        <v>29.41899067362208</v>
+        <v>29.41899067362213</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>35.00963788216638</v>
       </c>
       <c r="H8">
-        <v>28.42577189130673</v>
+        <v>28.42577189130672</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>20.05148510235086</v>
+        <v>20.05148510235095</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.26606859049558</v>
+        <v>24.26606859049564</v>
       </c>
       <c r="C9">
-        <v>23.6532721648396</v>
+        <v>23.65327216483957</v>
       </c>
       <c r="D9">
-        <v>8.388548945116554</v>
+        <v>8.3885489451166</v>
       </c>
       <c r="E9">
-        <v>35.01568628634789</v>
+        <v>35.01568628634798</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.98969274627825</v>
+        <v>39.98969274627831</v>
       </c>
       <c r="H9">
-        <v>31.92259589755124</v>
+        <v>31.92259589755126</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.7852154713701</v>
+        <v>26.78521547137005</v>
       </c>
       <c r="C10">
-        <v>26.20422995441958</v>
+        <v>26.20422995441957</v>
       </c>
       <c r="D10">
-        <v>9.263473986358493</v>
+        <v>9.26347398635842</v>
       </c>
       <c r="E10">
-        <v>38.99403235730141</v>
+        <v>38.99403235730144</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.62500862623302</v>
+        <v>43.62500862623293</v>
       </c>
       <c r="H10">
-        <v>34.52320608105135</v>
+        <v>34.52320608105128</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>26.00911681572225</v>
+        <v>26.0091168157222</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.90556275806568</v>
+        <v>27.9055627580657</v>
       </c>
       <c r="C11">
-        <v>27.34571109068196</v>
+        <v>27.34571109068202</v>
       </c>
       <c r="D11">
-        <v>9.652337939611417</v>
+        <v>9.652337939611479</v>
       </c>
       <c r="E11">
-        <v>40.79846559440159</v>
+        <v>40.79846559440157</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.38842011046658</v>
+        <v>45.38842011046651</v>
       </c>
       <c r="H11">
-        <v>35.72158740568798</v>
+        <v>35.72158740568795</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>27.09599157535815</v>
+        <v>27.09599157535816</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.3271057056075</v>
+        <v>28.32710570560754</v>
       </c>
       <c r="C12">
-        <v>27.77639782408539</v>
+        <v>27.77639782408558</v>
       </c>
       <c r="D12">
-        <v>9.79859017392975</v>
+        <v>9.79859017392978</v>
       </c>
       <c r="E12">
-        <v>41.48362026829705</v>
+        <v>41.48362026829713</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.078336713033</v>
+        <v>46.07833671303306</v>
       </c>
       <c r="H12">
-        <v>36.17866031695184</v>
+        <v>36.17866031695186</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>27.5053315828848</v>
+        <v>27.50533158288485</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23642121348978</v>
+        <v>28.23642121348984</v>
       </c>
       <c r="C13">
-        <v>27.6836898337386</v>
+        <v>27.68368983373872</v>
       </c>
       <c r="D13">
-        <v>9.767130938621483</v>
+        <v>9.767130938621465</v>
       </c>
       <c r="E13">
-        <v>41.33592784033983</v>
+        <v>41.33592784033986</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>45.92971710425006</v>
       </c>
       <c r="H13">
-        <v>36.08005502562798</v>
+        <v>36.08005502562794</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>27.41725374993121</v>
+        <v>27.41725374993125</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94029118659707</v>
+        <v>27.94029118659715</v>
       </c>
       <c r="C14">
-        <v>27.38116768525725</v>
+        <v>27.38116768525709</v>
       </c>
       <c r="D14">
-        <v>9.664388231746608</v>
+        <v>9.664388231746624</v>
       </c>
       <c r="E14">
-        <v>40.8547789049049</v>
+        <v>40.85477890490484</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.44516783284092</v>
+        <v>45.44516783284072</v>
       </c>
       <c r="H14">
-        <v>35.75911808231432</v>
+        <v>35.7591180823142</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>27.12970643345442</v>
+        <v>27.12970643345441</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75858328634309</v>
+        <v>27.75858328634311</v>
       </c>
       <c r="C15">
-        <v>27.19569930817356</v>
+        <v>27.19569930817349</v>
       </c>
       <c r="D15">
-        <v>9.601335362038911</v>
+        <v>9.601335362038801</v>
       </c>
       <c r="E15">
-        <v>40.56039286563935</v>
+        <v>40.56039286563928</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.14843054496723</v>
+        <v>45.1484305449673</v>
       </c>
       <c r="H15">
-        <v>35.56299885793521</v>
+        <v>35.56299885793531</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>26.95331802368063</v>
+        <v>26.95331802368064</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.71156087352836</v>
+        <v>26.71156087352839</v>
       </c>
       <c r="C16">
-        <v>26.12934277679678</v>
+        <v>26.12934277679683</v>
       </c>
       <c r="D16">
-        <v>9.237901984693902</v>
+        <v>9.237901984693824</v>
       </c>
       <c r="E16">
-        <v>38.87620968892088</v>
+        <v>38.8762096889208</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.51674767718119</v>
+        <v>43.51674767718104</v>
       </c>
       <c r="H16">
-        <v>34.44528094098902</v>
+        <v>34.4452809409889</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>25.93771441678842</v>
+        <v>25.9377144167884</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06330991740596</v>
+        <v>26.06330991740585</v>
       </c>
       <c r="C17">
-        <v>25.47105244797494</v>
+        <v>25.47105244797481</v>
       </c>
       <c r="D17">
-        <v>9.012807000993428</v>
+        <v>9.012807000993368</v>
       </c>
       <c r="E17">
-        <v>37.84331029855252</v>
+        <v>37.84331029855241</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.56885396450931</v>
+        <v>42.56885396450924</v>
       </c>
       <c r="H17">
-        <v>33.76417889876614</v>
+        <v>33.76417889876613</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>25.30955269514926</v>
+        <v>25.30955269514916</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.68797136904785</v>
+        <v>25.68797136904784</v>
       </c>
       <c r="C18">
-        <v>25.09055323891366</v>
+        <v>25.0905532389136</v>
       </c>
       <c r="D18">
-        <v>8.882455446434042</v>
+        <v>8.882455446433982</v>
       </c>
       <c r="E18">
-        <v>37.24852078049857</v>
+        <v>37.24852078049861</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.02416335737943</v>
+        <v>42.02416335737934</v>
       </c>
       <c r="H18">
-        <v>33.37378987163758</v>
+        <v>33.37378987163751</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>24.94606167226054</v>
+        <v>24.94606167226053</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.56043574568513</v>
+        <v>25.56043574568518</v>
       </c>
       <c r="C19">
-        <v>24.96137092942116</v>
+        <v>24.96137092942137</v>
       </c>
       <c r="D19">
-        <v>8.838160578378698</v>
+        <v>8.83816057837871</v>
       </c>
       <c r="E19">
-        <v>37.04694710356348</v>
+        <v>37.04694710356355</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.83979161484393</v>
+        <v>41.83979161484388</v>
       </c>
       <c r="H19">
-        <v>33.24181808262207</v>
+        <v>33.241818082622</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>24.82258714054768</v>
+        <v>24.82258714054775</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.13256782965358</v>
+        <v>26.13256782965357</v>
       </c>
       <c r="C20">
-        <v>25.54131438504652</v>
+        <v>25.54131438504658</v>
       </c>
       <c r="D20">
-        <v>9.036858073972001</v>
+        <v>9.036858073971997</v>
       </c>
       <c r="E20">
-        <v>37.95331910899607</v>
+        <v>37.95331910899598</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.66969673319124</v>
+        <v>42.66969673319119</v>
       </c>
       <c r="H20">
-        <v>33.83653573066205</v>
+        <v>33.83653573066199</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>25.37664164134036</v>
+        <v>25.37664164134038</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.02733629073171</v>
+        <v>28.02733629073183</v>
       </c>
       <c r="C21">
-        <v>27.47005763004641</v>
+        <v>27.47005763004646</v>
       </c>
       <c r="D21">
-        <v>9.694590597781295</v>
+        <v>9.694590597781326</v>
       </c>
       <c r="E21">
-        <v>40.99602917018201</v>
+        <v>40.99602917018203</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.58747484447977</v>
+        <v>45.58747484447978</v>
       </c>
       <c r="H21">
-        <v>35.85328592538877</v>
+        <v>35.85328592538873</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.21421754449232</v>
+        <v>27.2142175444924</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.25053256372957</v>
+        <v>29.25053256372952</v>
       </c>
       <c r="C22">
-        <v>28.72223479147519</v>
+        <v>28.72223479147508</v>
       </c>
       <c r="D22">
-        <v>10.11881837936392</v>
+        <v>10.11881837936391</v>
       </c>
       <c r="E22">
-        <v>42.99722234811776</v>
+        <v>42.9972223481177</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.59788502301126</v>
+        <v>47.59788502301098</v>
       </c>
       <c r="H22">
-        <v>37.19120254574937</v>
+        <v>37.19120254574916</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>28.40280597332061</v>
+        <v>28.40280597332057</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.59868649650734</v>
+        <v>28.59868649650721</v>
       </c>
       <c r="C23">
-        <v>28.05422595210234</v>
+        <v>28.05422595210226</v>
       </c>
       <c r="D23">
-        <v>9.892792362546958</v>
+        <v>9.892792362546771</v>
       </c>
       <c r="E23">
-        <v>41.92692521588626</v>
+        <v>41.92692521588619</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.52407486714739</v>
+        <v>46.52407486714709</v>
       </c>
       <c r="H23">
-        <v>36.4748608913978</v>
+        <v>36.47486089139755</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.76916735520285</v>
+        <v>27.76916735520272</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>26.10126465348631</v>
       </c>
       <c r="C24">
-        <v>25.50955539884549</v>
+        <v>25.50955539884545</v>
       </c>
       <c r="D24">
-        <v>9.025987538895091</v>
+        <v>9.025987538895103</v>
       </c>
       <c r="E24">
-        <v>37.90358730966135</v>
+        <v>37.90358730966141</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.62410499180546</v>
+        <v>42.62410499180538</v>
       </c>
       <c r="H24">
-        <v>33.80381958930064</v>
+        <v>33.80381958930055</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.31024770792002</v>
+        <v>23.31024770791995</v>
       </c>
       <c r="C25">
-        <v>22.69067073982275</v>
+        <v>22.69067073982291</v>
       </c>
       <c r="D25">
-        <v>8.056499009357307</v>
+        <v>8.056499009357289</v>
       </c>
       <c r="E25">
-        <v>33.53174702619891</v>
+        <v>33.53174702619889</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.64949238610137</v>
+        <v>38.64949238610131</v>
       </c>
       <c r="H25">
-        <v>30.97317786855456</v>
+        <v>30.97317786855449</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>22.6469034037663</v>
+        <v>22.64690340376626</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14416606908421</v>
+        <v>21.14416606908413</v>
       </c>
       <c r="C2">
-        <v>20.5191374414537</v>
+        <v>20.51913744145368</v>
       </c>
       <c r="D2">
-        <v>7.304071600413963</v>
+        <v>7.304071600413978</v>
       </c>
       <c r="E2">
-        <v>30.21443585021825</v>
+        <v>30.21443585021826</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.70313754599266</v>
+        <v>35.70313754599269</v>
       </c>
       <c r="H2">
-        <v>28.90722778260735</v>
+        <v>28.90722778260738</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>20.5573816253186</v>
+        <v>20.55738162531851</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.59643804445629</v>
+        <v>19.59643804445628</v>
       </c>
       <c r="C3">
-        <v>18.97544034670054</v>
+        <v>18.97544034670045</v>
       </c>
       <c r="D3">
-        <v>6.766629166216312</v>
+        <v>6.766629166216358</v>
       </c>
       <c r="E3">
-        <v>27.87914868520521</v>
+        <v>27.87914868520524</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.68492091431106</v>
+        <v>33.68492091431111</v>
       </c>
       <c r="H3">
-        <v>27.51190519319357</v>
+        <v>27.5119051931936</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.06711109234366</v>
+        <v>19.06711109234361</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60395399878779</v>
+        <v>18.60395399878776</v>
       </c>
       <c r="C4">
-        <v>17.98882893971377</v>
+        <v>17.98882893971373</v>
       </c>
       <c r="D4">
-        <v>6.422126415431048</v>
+        <v>6.422126415430972</v>
       </c>
       <c r="E4">
-        <v>26.39557191854411</v>
+        <v>26.3955719185441</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.43410875778002</v>
+        <v>32.43410875777999</v>
       </c>
       <c r="H4">
-        <v>26.65668414369054</v>
+        <v>26.65668414369051</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.11264619005941</v>
+        <v>18.1126461900594</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.1885344198513</v>
+        <v>18.18853441985132</v>
       </c>
       <c r="C5">
-        <v>17.5766069742415</v>
+        <v>17.57660697424145</v>
       </c>
       <c r="D5">
-        <v>6.277966805419879</v>
+        <v>6.277966805419884</v>
       </c>
       <c r="E5">
-        <v>25.77764528091802</v>
+        <v>25.77764528091792</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.92150820839985</v>
+        <v>31.92150820839987</v>
       </c>
       <c r="H5">
-        <v>26.30855059132775</v>
+        <v>26.30855059132774</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.71341020640838</v>
+        <v>17.71341020640839</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11888142318373</v>
+        <v>18.11888142318379</v>
       </c>
       <c r="C6">
-        <v>17.50753224510374</v>
+        <v>17.50753224510384</v>
       </c>
       <c r="D6">
-        <v>6.253798032353125</v>
+        <v>6.253798032353052</v>
       </c>
       <c r="E6">
-        <v>25.67420919781978</v>
+        <v>25.67420919781971</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.83622124937467</v>
+        <v>31.83622124937466</v>
       </c>
       <c r="H6">
         <v>26.25076768037175</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.6464862804374</v>
+        <v>17.64648628043748</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59839640011951</v>
+        <v>18.59839640011936</v>
       </c>
       <c r="C7">
-        <v>17.98331126704812</v>
+        <v>17.98331126704792</v>
       </c>
       <c r="D7">
-        <v>6.420197654722802</v>
+        <v>6.420197654722848</v>
       </c>
       <c r="E7">
-        <v>26.38729348427043</v>
+        <v>26.38729348427037</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.42720715966797</v>
+        <v>32.42720715966799</v>
       </c>
       <c r="H7">
-        <v>26.65198750665909</v>
+        <v>26.65198750665911</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.10730404939243</v>
+        <v>18.10730404939228</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61902680308459</v>
+        <v>20.61902680308445</v>
       </c>
       <c r="C8">
-        <v>19.9946497407268</v>
+        <v>19.99464974072687</v>
       </c>
       <c r="D8">
-        <v>7.12169492969896</v>
+        <v>7.121694929698942</v>
       </c>
       <c r="E8">
-        <v>29.41899067362213</v>
+        <v>29.41899067362208</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>35.00963788216638</v>
       </c>
       <c r="H8">
-        <v>28.42577189130672</v>
+        <v>28.42577189130673</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>20.05148510235095</v>
+        <v>20.05148510235086</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.26606859049564</v>
+        <v>24.26606859049558</v>
       </c>
       <c r="C9">
-        <v>23.65327216483957</v>
+        <v>23.6532721648396</v>
       </c>
       <c r="D9">
-        <v>8.3885489451166</v>
+        <v>8.388548945116554</v>
       </c>
       <c r="E9">
-        <v>35.01568628634798</v>
+        <v>35.01568628634789</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.98969274627831</v>
+        <v>39.98969274627825</v>
       </c>
       <c r="H9">
-        <v>31.92259589755126</v>
+        <v>31.92259589755124</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.78521547137005</v>
+        <v>26.7852154713701</v>
       </c>
       <c r="C10">
-        <v>26.20422995441957</v>
+        <v>26.20422995441958</v>
       </c>
       <c r="D10">
-        <v>9.26347398635842</v>
+        <v>9.263473986358493</v>
       </c>
       <c r="E10">
-        <v>38.99403235730144</v>
+        <v>38.99403235730141</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.62500862623293</v>
+        <v>43.62500862623302</v>
       </c>
       <c r="H10">
-        <v>34.52320608105128</v>
+        <v>34.52320608105135</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>26.0091168157222</v>
+        <v>26.00911681572225</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.9055627580657</v>
+        <v>27.90556275806568</v>
       </c>
       <c r="C11">
-        <v>27.34571109068202</v>
+        <v>27.34571109068196</v>
       </c>
       <c r="D11">
-        <v>9.652337939611479</v>
+        <v>9.652337939611417</v>
       </c>
       <c r="E11">
-        <v>40.79846559440157</v>
+        <v>40.79846559440159</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.38842011046651</v>
+        <v>45.38842011046658</v>
       </c>
       <c r="H11">
-        <v>35.72158740568795</v>
+        <v>35.72158740568798</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>27.09599157535816</v>
+        <v>27.09599157535815</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.32710570560754</v>
+        <v>28.3271057056075</v>
       </c>
       <c r="C12">
-        <v>27.77639782408558</v>
+        <v>27.77639782408539</v>
       </c>
       <c r="D12">
-        <v>9.79859017392978</v>
+        <v>9.79859017392975</v>
       </c>
       <c r="E12">
-        <v>41.48362026829713</v>
+        <v>41.48362026829705</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.07833671303306</v>
+        <v>46.078336713033</v>
       </c>
       <c r="H12">
-        <v>36.17866031695186</v>
+        <v>36.17866031695184</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>27.50533158288485</v>
+        <v>27.5053315828848</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23642121348984</v>
+        <v>28.23642121348978</v>
       </c>
       <c r="C13">
-        <v>27.68368983373872</v>
+        <v>27.6836898337386</v>
       </c>
       <c r="D13">
-        <v>9.767130938621465</v>
+        <v>9.767130938621483</v>
       </c>
       <c r="E13">
-        <v>41.33592784033986</v>
+        <v>41.33592784033983</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>45.92971710425006</v>
       </c>
       <c r="H13">
-        <v>36.08005502562794</v>
+        <v>36.08005502562798</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>27.41725374993125</v>
+        <v>27.41725374993121</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94029118659715</v>
+        <v>27.94029118659707</v>
       </c>
       <c r="C14">
-        <v>27.38116768525709</v>
+        <v>27.38116768525725</v>
       </c>
       <c r="D14">
-        <v>9.664388231746624</v>
+        <v>9.664388231746608</v>
       </c>
       <c r="E14">
-        <v>40.85477890490484</v>
+        <v>40.8547789049049</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.44516783284072</v>
+        <v>45.44516783284092</v>
       </c>
       <c r="H14">
-        <v>35.7591180823142</v>
+        <v>35.75911808231432</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>27.12970643345441</v>
+        <v>27.12970643345442</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75858328634311</v>
+        <v>27.75858328634309</v>
       </c>
       <c r="C15">
-        <v>27.19569930817349</v>
+        <v>27.19569930817356</v>
       </c>
       <c r="D15">
-        <v>9.601335362038801</v>
+        <v>9.601335362038911</v>
       </c>
       <c r="E15">
-        <v>40.56039286563928</v>
+        <v>40.56039286563935</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.1484305449673</v>
+        <v>45.14843054496723</v>
       </c>
       <c r="H15">
-        <v>35.56299885793531</v>
+        <v>35.56299885793521</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>26.95331802368064</v>
+        <v>26.95331802368063</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.71156087352839</v>
+        <v>26.71156087352836</v>
       </c>
       <c r="C16">
-        <v>26.12934277679683</v>
+        <v>26.12934277679678</v>
       </c>
       <c r="D16">
-        <v>9.237901984693824</v>
+        <v>9.237901984693902</v>
       </c>
       <c r="E16">
-        <v>38.8762096889208</v>
+        <v>38.87620968892088</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.51674767718104</v>
+        <v>43.51674767718119</v>
       </c>
       <c r="H16">
-        <v>34.4452809409889</v>
+        <v>34.44528094098902</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>25.9377144167884</v>
+        <v>25.93771441678842</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06330991740585</v>
+        <v>26.06330991740596</v>
       </c>
       <c r="C17">
-        <v>25.47105244797481</v>
+        <v>25.47105244797494</v>
       </c>
       <c r="D17">
-        <v>9.012807000993368</v>
+        <v>9.012807000993428</v>
       </c>
       <c r="E17">
-        <v>37.84331029855241</v>
+        <v>37.84331029855252</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.56885396450924</v>
+        <v>42.56885396450931</v>
       </c>
       <c r="H17">
-        <v>33.76417889876613</v>
+        <v>33.76417889876614</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>25.30955269514916</v>
+        <v>25.30955269514926</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.68797136904784</v>
+        <v>25.68797136904785</v>
       </c>
       <c r="C18">
-        <v>25.0905532389136</v>
+        <v>25.09055323891366</v>
       </c>
       <c r="D18">
-        <v>8.882455446433982</v>
+        <v>8.882455446434042</v>
       </c>
       <c r="E18">
-        <v>37.24852078049861</v>
+        <v>37.24852078049857</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.02416335737934</v>
+        <v>42.02416335737943</v>
       </c>
       <c r="H18">
-        <v>33.37378987163751</v>
+        <v>33.37378987163758</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>24.94606167226053</v>
+        <v>24.94606167226054</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.56043574568518</v>
+        <v>25.56043574568513</v>
       </c>
       <c r="C19">
-        <v>24.96137092942137</v>
+        <v>24.96137092942116</v>
       </c>
       <c r="D19">
-        <v>8.83816057837871</v>
+        <v>8.838160578378698</v>
       </c>
       <c r="E19">
-        <v>37.04694710356355</v>
+        <v>37.04694710356348</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.83979161484388</v>
+        <v>41.83979161484393</v>
       </c>
       <c r="H19">
-        <v>33.241818082622</v>
+        <v>33.24181808262207</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>24.82258714054775</v>
+        <v>24.82258714054768</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.13256782965357</v>
+        <v>26.13256782965358</v>
       </c>
       <c r="C20">
-        <v>25.54131438504658</v>
+        <v>25.54131438504652</v>
       </c>
       <c r="D20">
-        <v>9.036858073971997</v>
+        <v>9.036858073972001</v>
       </c>
       <c r="E20">
-        <v>37.95331910899598</v>
+        <v>37.95331910899607</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.66969673319119</v>
+        <v>42.66969673319124</v>
       </c>
       <c r="H20">
-        <v>33.83653573066199</v>
+        <v>33.83653573066205</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>25.37664164134038</v>
+        <v>25.37664164134036</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.02733629073183</v>
+        <v>28.02733629073171</v>
       </c>
       <c r="C21">
-        <v>27.47005763004646</v>
+        <v>27.47005763004641</v>
       </c>
       <c r="D21">
-        <v>9.694590597781326</v>
+        <v>9.694590597781295</v>
       </c>
       <c r="E21">
-        <v>40.99602917018203</v>
+        <v>40.99602917018201</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.58747484447978</v>
+        <v>45.58747484447977</v>
       </c>
       <c r="H21">
-        <v>35.85328592538873</v>
+        <v>35.85328592538877</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.2142175444924</v>
+        <v>27.21421754449232</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.25053256372952</v>
+        <v>29.25053256372957</v>
       </c>
       <c r="C22">
-        <v>28.72223479147508</v>
+        <v>28.72223479147519</v>
       </c>
       <c r="D22">
-        <v>10.11881837936391</v>
+        <v>10.11881837936392</v>
       </c>
       <c r="E22">
-        <v>42.9972223481177</v>
+        <v>42.99722234811776</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.59788502301098</v>
+        <v>47.59788502301126</v>
       </c>
       <c r="H22">
-        <v>37.19120254574916</v>
+        <v>37.19120254574937</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>28.40280597332057</v>
+        <v>28.40280597332061</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.59868649650721</v>
+        <v>28.59868649650734</v>
       </c>
       <c r="C23">
-        <v>28.05422595210226</v>
+        <v>28.05422595210234</v>
       </c>
       <c r="D23">
-        <v>9.892792362546771</v>
+        <v>9.892792362546958</v>
       </c>
       <c r="E23">
-        <v>41.92692521588619</v>
+        <v>41.92692521588626</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.52407486714709</v>
+        <v>46.52407486714739</v>
       </c>
       <c r="H23">
-        <v>36.47486089139755</v>
+        <v>36.4748608913978</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.76916735520272</v>
+        <v>27.76916735520285</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>26.10126465348631</v>
       </c>
       <c r="C24">
-        <v>25.50955539884545</v>
+        <v>25.50955539884549</v>
       </c>
       <c r="D24">
-        <v>9.025987538895103</v>
+        <v>9.025987538895091</v>
       </c>
       <c r="E24">
-        <v>37.90358730966141</v>
+        <v>37.90358730966135</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.62410499180538</v>
+        <v>42.62410499180546</v>
       </c>
       <c r="H24">
-        <v>33.80381958930055</v>
+        <v>33.80381958930064</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.31024770791995</v>
+        <v>23.31024770792002</v>
       </c>
       <c r="C25">
-        <v>22.69067073982291</v>
+        <v>22.69067073982275</v>
       </c>
       <c r="D25">
-        <v>8.056499009357289</v>
+        <v>8.056499009357307</v>
       </c>
       <c r="E25">
-        <v>33.53174702619889</v>
+        <v>33.53174702619891</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.64949238610131</v>
+        <v>38.64949238610137</v>
       </c>
       <c r="H25">
-        <v>30.97317786855449</v>
+        <v>30.97317786855456</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>22.64690340376626</v>
+        <v>22.6469034037663</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14416606908413</v>
+        <v>21.14305764441301</v>
       </c>
       <c r="C2">
-        <v>20.51913744145368</v>
+        <v>20.50888058279061</v>
       </c>
       <c r="D2">
-        <v>7.304071600413978</v>
+        <v>7.303849904580908</v>
       </c>
       <c r="E2">
-        <v>30.21443585021826</v>
+        <v>30.21342633779599</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.70313754599269</v>
+        <v>35.05092249008091</v>
       </c>
       <c r="H2">
-        <v>28.90722778260738</v>
+        <v>35.74215455806586</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28.86717449770889</v>
       </c>
       <c r="J2">
-        <v>20.55738162531851</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.55335096928826</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.59643804445628</v>
+        <v>19.59574762812756</v>
       </c>
       <c r="C3">
-        <v>18.97544034670045</v>
+        <v>18.96617257892815</v>
       </c>
       <c r="D3">
-        <v>6.766629166216358</v>
+        <v>6.766476437826223</v>
       </c>
       <c r="E3">
-        <v>27.87914868520524</v>
+        <v>27.87846397789621</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.68492091431111</v>
+        <v>32.80833574897482</v>
       </c>
       <c r="H3">
-        <v>27.5119051931936</v>
+        <v>33.72219288386221</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27.47502080932024</v>
       </c>
       <c r="J3">
-        <v>19.06711109234361</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.06369788454632</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60395399878776</v>
+        <v>18.60350228403061</v>
       </c>
       <c r="C4">
-        <v>17.98882893971373</v>
+        <v>17.98016539260129</v>
       </c>
       <c r="D4">
-        <v>6.422126415430972</v>
+        <v>6.422011257094839</v>
       </c>
       <c r="E4">
-        <v>26.3955719185441</v>
+        <v>26.39506042686614</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.43410875777999</v>
+        <v>31.40434759600602</v>
       </c>
       <c r="H4">
-        <v>26.65668414369051</v>
+        <v>32.4703502400503</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>26.62182546855583</v>
       </c>
       <c r="J4">
-        <v>18.1126461900594</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.10960313051492</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18853441985132</v>
+        <v>18.18817625628832</v>
       </c>
       <c r="C5">
-        <v>17.57660697424145</v>
+        <v>17.56818975119626</v>
       </c>
       <c r="D5">
-        <v>6.277966805419884</v>
+        <v>6.277865952266811</v>
       </c>
       <c r="E5">
-        <v>25.77764528091792</v>
+        <v>25.77719900314846</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.92150820839987</v>
+        <v>30.82535451729865</v>
       </c>
       <c r="H5">
-        <v>26.30855059132774</v>
+        <v>31.9573412769669</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>26.2745378658406</v>
       </c>
       <c r="J5">
-        <v>17.71341020640839</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.71051660174824</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11888142318379</v>
+        <v>18.11853858970838</v>
       </c>
       <c r="C6">
-        <v>17.50753224510384</v>
+        <v>17.49915595234697</v>
       </c>
       <c r="D6">
-        <v>6.253798032353052</v>
+        <v>6.253699498967637</v>
       </c>
       <c r="E6">
-        <v>25.67420919781971</v>
+        <v>25.67377345533742</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.83622124937466</v>
+        <v>30.72880076780792</v>
       </c>
       <c r="H6">
-        <v>26.25076768037175</v>
+        <v>31.87198723339385</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>26.2168966621658</v>
       </c>
       <c r="J6">
-        <v>17.64648628043748</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.64361743232313</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59839640011936</v>
+        <v>18.5979459611407</v>
       </c>
       <c r="C7">
-        <v>17.98331126704792</v>
+        <v>17.97465104051331</v>
       </c>
       <c r="D7">
-        <v>6.420197654722848</v>
+        <v>6.420082693145631</v>
       </c>
       <c r="E7">
-        <v>26.38729348427037</v>
+        <v>26.38678289241054</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.42720715966799</v>
+        <v>31.39656680228441</v>
       </c>
       <c r="H7">
-        <v>26.65198750665911</v>
+        <v>32.46344308564648</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>26.61714015730173</v>
       </c>
       <c r="J7">
-        <v>18.10730404939228</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.10426300998583</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61902680308445</v>
+        <v>20.61806675696634</v>
       </c>
       <c r="C8">
-        <v>19.99464974072687</v>
+        <v>19.98473514483996</v>
       </c>
       <c r="D8">
-        <v>7.121694929698942</v>
+        <v>7.121498134744636</v>
       </c>
       <c r="E8">
-        <v>29.41899067362208</v>
+        <v>29.41809941329565</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.00963788216638</v>
+        <v>34.28319577392092</v>
       </c>
       <c r="H8">
-        <v>28.42577189130673</v>
+        <v>35.04804541169374</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.3867949729075</v>
       </c>
       <c r="J8">
-        <v>20.05148510235086</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.04766976966477</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.26606859049558</v>
+        <v>24.26392193100215</v>
       </c>
       <c r="C9">
-        <v>23.6532721648396</v>
+        <v>23.64082241836885</v>
       </c>
       <c r="D9">
-        <v>8.388548945116554</v>
+        <v>8.388142583531906</v>
       </c>
       <c r="E9">
-        <v>35.01568628634789</v>
+        <v>35.01376796539731</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.98969274627825</v>
+        <v>39.74244716408384</v>
       </c>
       <c r="H9">
-        <v>31.92259589755124</v>
+        <v>40.03263248756194</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>31.87611740323849</v>
       </c>
       <c r="J9">
-        <v>23.57042908004229</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.56497634494167</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.7852154713701</v>
+        <v>26.78200052355913</v>
       </c>
       <c r="C10">
-        <v>26.20422995441958</v>
+        <v>26.18977640178607</v>
       </c>
       <c r="D10">
-        <v>9.263473986358493</v>
+        <v>9.262862886334293</v>
       </c>
       <c r="E10">
-        <v>38.99403235730141</v>
+        <v>38.99104604710015</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.62500862623302</v>
+        <v>43.66552053128282</v>
       </c>
       <c r="H10">
-        <v>34.52320608105135</v>
+        <v>43.67137437367924</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.47148790824055</v>
       </c>
       <c r="J10">
-        <v>26.00911681572225</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.00230216079863</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.90556275806568</v>
+        <v>27.9017922829195</v>
       </c>
       <c r="C11">
-        <v>27.34571109068196</v>
+        <v>27.33028372153508</v>
       </c>
       <c r="D11">
-        <v>9.652337939611417</v>
+        <v>9.651615768280241</v>
       </c>
       <c r="E11">
-        <v>40.79846559440159</v>
+        <v>40.79487494071934</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.38842011046658</v>
+        <v>45.44445462094031</v>
       </c>
       <c r="H11">
-        <v>35.72158740568798</v>
+        <v>45.44445462094215</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.66751014198958</v>
       </c>
       <c r="J11">
-        <v>27.09599157535815</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.08849500784502</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.3271057056075</v>
+        <v>28.32311163347361</v>
       </c>
       <c r="C12">
-        <v>27.77639782408539</v>
+        <v>27.76058891883883</v>
       </c>
       <c r="D12">
-        <v>9.79859017392975</v>
+        <v>9.797822524491673</v>
       </c>
       <c r="E12">
-        <v>41.48362026829705</v>
+        <v>41.47977724470381</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.078336713033</v>
+        <v>46.12803689383566</v>
       </c>
       <c r="H12">
-        <v>36.17866031695184</v>
+        <v>46.11887654269589</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36.12368895298166</v>
       </c>
       <c r="J12">
-        <v>27.5053315828848</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>27.49756449350132</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23642121348978</v>
+        <v>28.23247594897046</v>
       </c>
       <c r="C13">
-        <v>27.6836898337386</v>
+        <v>27.66796374259109</v>
       </c>
       <c r="D13">
-        <v>9.767130938621483</v>
+        <v>9.766373252308389</v>
       </c>
       <c r="E13">
-        <v>41.33592784033983</v>
+        <v>41.33214034715797</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.92971710425006</v>
+        <v>45.9792729935277</v>
       </c>
       <c r="H13">
-        <v>36.08005502562798</v>
+        <v>45.97356229098785</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>36.02527634103692</v>
       </c>
       <c r="J13">
-        <v>27.41725374993121</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>27.40954553459836</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94029118659707</v>
+        <v>27.93650260363209</v>
       </c>
       <c r="C14">
-        <v>27.38116768525725</v>
+        <v>27.36570920954802</v>
       </c>
       <c r="D14">
-        <v>9.664388231746608</v>
+        <v>9.663662393267252</v>
       </c>
       <c r="E14">
-        <v>40.8547789049049</v>
+        <v>40.85116800649414</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.44516783284092</v>
+        <v>45.49991320072706</v>
       </c>
       <c r="H14">
-        <v>35.75911808231432</v>
+        <v>45.49991320072704</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.70496730577702</v>
       </c>
       <c r="J14">
-        <v>27.12970643345442</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>27.12218787952347</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75858328634309</v>
+        <v>27.75488883774742</v>
       </c>
       <c r="C15">
-        <v>27.19569930817356</v>
+        <v>27.18040295539984</v>
       </c>
       <c r="D15">
-        <v>9.601335362038911</v>
+        <v>9.60062855629131</v>
       </c>
       <c r="E15">
-        <v>40.56039286563935</v>
+        <v>40.55688683721898</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.14843054496723</v>
+        <v>45.20994659504956</v>
       </c>
       <c r="H15">
-        <v>35.56299885793521</v>
+        <v>45.20994659504956</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.50923244076139</v>
       </c>
       <c r="J15">
-        <v>26.95331802368063</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.94591392351405</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.71156087352836</v>
+        <v>26.70838057874224</v>
       </c>
       <c r="C16">
-        <v>26.12934277679678</v>
+        <v>26.11495131431178</v>
       </c>
       <c r="D16">
-        <v>9.237901984693902</v>
+        <v>9.237297717143932</v>
       </c>
       <c r="E16">
-        <v>38.87620968892088</v>
+        <v>38.87325999140299</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.51674767718119</v>
+        <v>43.54927416174942</v>
       </c>
       <c r="H16">
-        <v>34.44528094098902</v>
+        <v>43.56301127613739</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.39371709942601</v>
       </c>
       <c r="J16">
-        <v>25.93771441678842</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.93094281120812</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06330991740596</v>
+        <v>26.06042524049146</v>
       </c>
       <c r="C17">
-        <v>25.47105244797494</v>
+        <v>25.45719781669123</v>
       </c>
       <c r="D17">
-        <v>9.012807000993428</v>
+        <v>9.012260530433551</v>
       </c>
       <c r="E17">
-        <v>37.84331029855252</v>
+        <v>37.84066766609616</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.56885396450931</v>
+        <v>42.53003854874226</v>
       </c>
       <c r="H17">
-        <v>33.76417889876614</v>
+        <v>42.61422251347739</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.71396992211537</v>
       </c>
       <c r="J17">
-        <v>25.30955269514926</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.30315108375657</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.68797136904785</v>
+        <v>25.68525041977514</v>
       </c>
       <c r="C18">
-        <v>25.09055323891366</v>
+        <v>25.07700180556785</v>
       </c>
       <c r="D18">
-        <v>8.882455446434042</v>
+        <v>8.881940594538253</v>
       </c>
       <c r="E18">
-        <v>37.24852078049857</v>
+        <v>37.24604411076022</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.02416335737943</v>
+        <v>41.94314508074106</v>
       </c>
       <c r="H18">
-        <v>33.37378987163758</v>
+        <v>42.06901753248059</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.32436280732342</v>
       </c>
       <c r="J18">
-        <v>24.94606167226054</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.9398672514898</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.56043574568513</v>
+        <v>25.5577692310714</v>
       </c>
       <c r="C19">
-        <v>24.96137092942116</v>
+        <v>24.94792129314856</v>
       </c>
       <c r="D19">
-        <v>8.838160578378698</v>
+        <v>8.837656174187462</v>
       </c>
       <c r="E19">
-        <v>37.04694710356348</v>
+        <v>37.04452495522536</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.83979161484393</v>
+        <v>41.74427925418213</v>
       </c>
       <c r="H19">
-        <v>33.24181808262207</v>
+        <v>41.8844717583108</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.19265631978175</v>
       </c>
       <c r="J19">
-        <v>24.82258714054768</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.81646199031565</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.13256782965358</v>
+        <v>26.12965235622215</v>
       </c>
       <c r="C20">
-        <v>25.54131438504652</v>
+        <v>25.52740320764481</v>
       </c>
       <c r="D20">
-        <v>9.036858073972001</v>
+        <v>9.036305624162416</v>
       </c>
       <c r="E20">
-        <v>37.95331910899607</v>
+        <v>37.95064493060173</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.66969673319124</v>
+        <v>42.63859576716258</v>
       </c>
       <c r="H20">
-        <v>33.83653573066205</v>
+        <v>42.71516052934927</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.78618228057586</v>
       </c>
       <c r="J20">
-        <v>25.37664164134036</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.37020124582504</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.02733629073171</v>
+        <v>28.02350207695893</v>
       </c>
       <c r="C21">
-        <v>27.47005763004641</v>
+        <v>27.45452093294834</v>
       </c>
       <c r="D21">
-        <v>9.694590597781295</v>
+        <v>9.693855505743052</v>
       </c>
       <c r="E21">
-        <v>40.99602917018201</v>
+        <v>40.99236710468995</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.58747484447977</v>
+        <v>45.63899909868557</v>
       </c>
       <c r="H21">
-        <v>35.85328592538877</v>
+        <v>45.63899909879305</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.79895077954872</v>
       </c>
       <c r="J21">
-        <v>27.21421754449232</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>27.20664364834053</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.25053256372957</v>
+        <v>29.24601837537208</v>
       </c>
       <c r="C22">
-        <v>28.72223479147519</v>
+        <v>28.70555841035888</v>
       </c>
       <c r="D22">
-        <v>10.11881837936392</v>
+        <v>10.1179433674464</v>
       </c>
       <c r="E22">
-        <v>42.99722234811776</v>
+        <v>42.9927723672341</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.59788502301126</v>
+        <v>47.64904642290912</v>
       </c>
       <c r="H22">
-        <v>37.19120254574937</v>
+        <v>47.60560238764688</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.13425744975834</v>
       </c>
       <c r="J22">
-        <v>28.40280597332061</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>28.39441712160097</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.59868649650734</v>
+        <v>28.59454388356116</v>
       </c>
       <c r="C23">
-        <v>28.05422595210234</v>
+        <v>28.03816655852414</v>
       </c>
       <c r="D23">
-        <v>9.892792362546958</v>
+        <v>9.891994270672066</v>
       </c>
       <c r="E23">
-        <v>41.92692521588626</v>
+        <v>41.92291167924517</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.52407486714739</v>
+        <v>46.57420642743917</v>
       </c>
       <c r="H23">
-        <v>36.4748608913978</v>
+        <v>46.55480546303343</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.41931132803556</v>
       </c>
       <c r="J23">
-        <v>27.76916735520285</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.76122166966302</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.10126465348631</v>
+        <v>26.09836312232865</v>
       </c>
       <c r="C24">
-        <v>25.50955539884549</v>
+        <v>25.49566980259927</v>
       </c>
       <c r="D24">
-        <v>9.025987538895091</v>
+        <v>9.025437797258972</v>
       </c>
       <c r="E24">
-        <v>37.90358730966135</v>
+        <v>37.90092742566918</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.62410499180546</v>
+        <v>42.58952003216772</v>
       </c>
       <c r="H24">
-        <v>33.80381958930064</v>
+        <v>42.66952572593696</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.75353144606405</v>
       </c>
       <c r="J24">
-        <v>25.34631812822927</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.33989528398738</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.31024770792002</v>
+        <v>23.30844933025432</v>
       </c>
       <c r="C25">
-        <v>22.69067073982275</v>
+        <v>22.67892317562858</v>
       </c>
       <c r="D25">
-        <v>8.056499009357307</v>
+        <v>8.056156412265945</v>
       </c>
       <c r="E25">
-        <v>33.53174702619891</v>
+        <v>33.53014862375307</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.64949238610137</v>
+        <v>38.28444600555413</v>
       </c>
       <c r="H25">
-        <v>30.97317786855456</v>
+        <v>38.69118384114223</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30.92867216989906</v>
       </c>
       <c r="J25">
-        <v>22.6469034037663</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.64191400884173</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>21.31203156318795</v>
+      </c>
+      <c r="C2">
+        <v>24.22258936243466</v>
+      </c>
+      <c r="D2">
+        <v>7.090507252647196</v>
+      </c>
+      <c r="E2">
+        <v>7.117542041056097</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.096127719656409</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>65.22124061562438</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>7.124592721148784</v>
+      </c>
+      <c r="M2">
+        <v>13.02644747968173</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>19.65402097690589</v>
+      </c>
+      <c r="C3">
+        <v>22.37677608997232</v>
+      </c>
+      <c r="D3">
+        <v>6.553039974435274</v>
+      </c>
+      <c r="E3">
+        <v>6.780809039611086</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.11621736518089</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>61.39548567105392</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>6.990972857172021</v>
+      </c>
+      <c r="M3">
+        <v>12.53605392727235</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>18.71532424157479</v>
+      </c>
+      <c r="C4">
+        <v>21.205518412751</v>
+      </c>
+      <c r="D4">
+        <v>6.234710061759587</v>
+      </c>
+      <c r="E4">
+        <v>6.571892944018636</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.128594454437429</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>58.99508823168142</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.913237064969509</v>
+      </c>
+      <c r="M4">
+        <v>12.2492239201639</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>18.36423327570621</v>
+      </c>
+      <c r="C5">
+        <v>20.71813550979365</v>
+      </c>
+      <c r="D5">
+        <v>6.116037745729351</v>
+      </c>
+      <c r="E5">
+        <v>6.486092221372997</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.133661477952561</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>58.00352890133558</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.882584746266953</v>
+      </c>
+      <c r="M5">
+        <v>12.13579408556384</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>18.30595450527694</v>
+      </c>
+      <c r="C6">
+        <v>20.63658284782682</v>
+      </c>
+      <c r="D6">
+        <v>6.096253888172245</v>
+      </c>
+      <c r="E6">
+        <v>6.471801863367683</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.13450459580316</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>57.83806550572083</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.877555372111009</v>
+      </c>
+      <c r="M6">
+        <v>12.11716465374399</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>18.71058802190994</v>
+      </c>
+      <c r="C7">
+        <v>21.1989868793638</v>
+      </c>
+      <c r="D7">
+        <v>6.233114860142711</v>
+      </c>
+      <c r="E7">
+        <v>6.570738640709156</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.128662680424165</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>58.98177027342412</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6.912819594220681</v>
+      </c>
+      <c r="M7">
+        <v>12.24768032293762</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>20.74426377213968</v>
+      </c>
+      <c r="C8">
+        <v>23.5936549005349</v>
+      </c>
+      <c r="D8">
+        <v>6.907656609072213</v>
+      </c>
+      <c r="E8">
+        <v>7.001801107015976</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.103054177866244</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>63.91240686713242</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7.077589095189543</v>
+      </c>
+      <c r="M8">
+        <v>12.85430346345071</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>24.79685550613276</v>
+      </c>
+      <c r="C9">
+        <v>28.02064849581323</v>
+      </c>
+      <c r="D9">
+        <v>8.189327311418069</v>
+      </c>
+      <c r="E9">
+        <v>7.837494148574585</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.052474342415144</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>73.21287396525986</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>7.438090545098398</v>
+      </c>
+      <c r="M9">
+        <v>14.65312714066682</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>27.75083429304469</v>
+      </c>
+      <c r="C10">
+        <v>31.16774196486211</v>
+      </c>
+      <c r="D10">
+        <v>9.093715735309596</v>
+      </c>
+      <c r="E10">
+        <v>8.460188715278747</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.013864687705037</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>79.90866832853337</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>7.73163924878564</v>
+      </c>
+      <c r="M10">
+        <v>16.34011178375227</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>29.10923354092349</v>
+      </c>
+      <c r="C11">
+        <v>32.59516675206198</v>
+      </c>
+      <c r="D11">
+        <v>9.50226268967134</v>
+      </c>
+      <c r="E11">
+        <v>8.750255288393939</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.995603786789828</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>82.95652131237156</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>7.873327744804764</v>
+      </c>
+      <c r="M11">
+        <v>17.10625609027679</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>29.62808386033889</v>
+      </c>
+      <c r="C12">
+        <v>33.13726110686662</v>
+      </c>
+      <c r="D12">
+        <v>9.657152643392015</v>
+      </c>
+      <c r="E12">
+        <v>8.861663768049393</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.988544436302202</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>84.11480180645562</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>7.928382097848543</v>
+      </c>
+      <c r="M12">
+        <v>17.3974086033781</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>29.51609609200887</v>
+      </c>
+      <c r="C13">
+        <v>33.02040010018814</v>
+      </c>
+      <c r="D13">
+        <v>9.623774793414162</v>
+      </c>
+      <c r="E13">
+        <v>8.837588714644468</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.990072065500777</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>83.86508617553801</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>7.916458426894221</v>
+      </c>
+      <c r="M13">
+        <v>17.33463448048781</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>29.15181413493305</v>
+      </c>
+      <c r="C14">
+        <v>32.63971908018627</v>
+      </c>
+      <c r="D14">
+        <v>9.514997881607711</v>
+      </c>
+      <c r="E14">
+        <v>8.75938544235861</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.995026204369068</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>83.05170428282666</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>7.877827461742119</v>
+      </c>
+      <c r="M14">
+        <v>17.13018044716026</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>28.92934394958883</v>
+      </c>
+      <c r="C15">
+        <v>32.40681983064476</v>
+      </c>
+      <c r="D15">
+        <v>9.448413267910025</v>
+      </c>
+      <c r="E15">
+        <v>8.711708558657957</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.998040419428776</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>82.5541581938478</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>7.854355257261989</v>
+      </c>
+      <c r="M15">
+        <v>17.00512293229864</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>27.66253819290437</v>
+      </c>
+      <c r="C16">
+        <v>31.07454218818713</v>
+      </c>
+      <c r="D16">
+        <v>9.067005517601379</v>
+      </c>
+      <c r="E16">
+        <v>8.441415047393525</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.015040575762535</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>79.70982306672187</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>7.722561437306872</v>
+      </c>
+      <c r="M16">
+        <v>16.29011258253104</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>26.89058905715796</v>
+      </c>
+      <c r="C17">
+        <v>30.2575020262699</v>
+      </c>
+      <c r="D17">
+        <v>8.83266212136248</v>
+      </c>
+      <c r="E17">
+        <v>8.277702219844771</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.025263578787575</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>77.96776481172151</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7.643938343250594</v>
+      </c>
+      <c r="M17">
+        <v>15.85190826893635</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>26.44778350412189</v>
+      </c>
+      <c r="C18">
+        <v>29.78700568082684</v>
+      </c>
+      <c r="D18">
+        <v>8.697560679349186</v>
+      </c>
+      <c r="E18">
+        <v>8.184134544067838</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.031081221980232</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>76.96566568145812</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>7.599466567101926</v>
+      </c>
+      <c r="M18">
+        <v>15.59965524760244</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>26.29800305698559</v>
+      </c>
+      <c r="C19">
+        <v>29.62755231465803</v>
+      </c>
+      <c r="D19">
+        <v>8.651748412984746</v>
+      </c>
+      <c r="E19">
+        <v>8.152541467332576</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.033041406352082</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>76.62625504563721</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>7.584532222425409</v>
+      </c>
+      <c r="M19">
+        <v>15.51417927728661</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>26.97262555367573</v>
+      </c>
+      <c r="C20">
+        <v>30.34452130384779</v>
+      </c>
+      <c r="D20">
+        <v>8.857637040088273</v>
+      </c>
+      <c r="E20">
+        <v>8.295064421411141</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.024182054833678</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>78.1531976842347</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>7.652228847821927</v>
+      </c>
+      <c r="M20">
+        <v>15.89856987246312</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>29.25866905098765</v>
+      </c>
+      <c r="C21">
+        <v>32.75147133576134</v>
+      </c>
+      <c r="D21">
+        <v>9.546937720761658</v>
+      </c>
+      <c r="E21">
+        <v>8.782307426803161</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.993575391101901</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>83.29046501856303</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>7.88913411823091</v>
+      </c>
+      <c r="M21">
+        <v>17.19019405671719</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>30.78041538383894</v>
+      </c>
+      <c r="C22">
+        <v>34.33520188253652</v>
+      </c>
+      <c r="D22">
+        <v>9.998919194272258</v>
+      </c>
+      <c r="E22">
+        <v>9.110316559761147</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.972699205203512</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>86.67486148250657</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>8.052293695338159</v>
+      </c>
+      <c r="M22">
+        <v>18.04121664279453</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>29.96469903021183</v>
+      </c>
+      <c r="C23">
+        <v>33.48805135553572</v>
+      </c>
+      <c r="D23">
+        <v>9.757304868035702</v>
+      </c>
+      <c r="E23">
+        <v>8.934124783625737</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.983939566296838</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>84.86443795294683</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>7.964353238460889</v>
+      </c>
+      <c r="M23">
+        <v>17.58587413437364</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>26.93553391045054</v>
+      </c>
+      <c r="C24">
+        <v>30.30518243744317</v>
+      </c>
+      <c r="D24">
+        <v>8.846347087427169</v>
+      </c>
+      <c r="E24">
+        <v>8.287213289113041</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.024671194627338</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>78.06936551927367</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>7.648478453969545</v>
+      </c>
+      <c r="M24">
+        <v>15.87747525542788</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23.70988007889682</v>
+      </c>
+      <c r="C25">
+        <v>26.84664662549779</v>
+      </c>
+      <c r="D25">
+        <v>7.85059479623834</v>
+      </c>
+      <c r="E25">
+        <v>7.61119384582747</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.066306401501618</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>70.72918600523091</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>7.33604392785181</v>
+      </c>
+      <c r="M25">
+        <v>14.02434893958616</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31203156318795</v>
+        <v>22.37372227330574</v>
       </c>
       <c r="C2">
-        <v>24.22258936243466</v>
+        <v>16.16327233346146</v>
       </c>
       <c r="D2">
-        <v>7.090507252647196</v>
+        <v>6.077913852366012</v>
       </c>
       <c r="E2">
-        <v>7.117542041056097</v>
+        <v>7.526206967384444</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.096127719656409</v>
+        <v>3.77653650844453</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>65.22124061562438</v>
+        <v>51.7693511630784</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.124592721148784</v>
+        <v>10.75681739180708</v>
       </c>
       <c r="M2">
-        <v>13.02644747968173</v>
+        <v>18.9096567644111</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.65402097690589</v>
+        <v>22.28587230375038</v>
       </c>
       <c r="C3">
-        <v>22.37677608997232</v>
+        <v>15.56972250320391</v>
       </c>
       <c r="D3">
-        <v>6.553039974435274</v>
+        <v>5.976801115551976</v>
       </c>
       <c r="E3">
-        <v>6.780809039611086</v>
+        <v>7.42870064576338</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.11621736518089</v>
+        <v>3.782535546321491</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>61.39548567105392</v>
+        <v>50.47576031848161</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.990972857172021</v>
+        <v>10.75901058246742</v>
       </c>
       <c r="M3">
-        <v>12.53605392727235</v>
+        <v>18.93712084349249</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.71532424157479</v>
+        <v>22.24376640731675</v>
       </c>
       <c r="C4">
-        <v>21.205518412751</v>
+        <v>15.19985834493625</v>
       </c>
       <c r="D4">
-        <v>6.234710061759587</v>
+        <v>5.91602708738063</v>
       </c>
       <c r="E4">
-        <v>6.571892944018636</v>
+        <v>7.367088767154117</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.128594454437429</v>
+        <v>3.786395907730004</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.99508823168142</v>
+        <v>49.66598219238842</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.913237064969509</v>
+        <v>10.761953805982</v>
       </c>
       <c r="M4">
-        <v>12.2492239201639</v>
+        <v>18.96004966829457</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.36423327570621</v>
+        <v>22.22958749001019</v>
       </c>
       <c r="C5">
-        <v>20.71813550979365</v>
+        <v>15.04803411239212</v>
       </c>
       <c r="D5">
-        <v>6.116037745729351</v>
+        <v>5.89162214729925</v>
       </c>
       <c r="E5">
-        <v>6.486092221372997</v>
+        <v>7.34154900705817</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.133661477952561</v>
+        <v>3.788013768470174</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>58.00352890133558</v>
+        <v>49.33241383217405</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.882584746266953</v>
+        <v>10.76355419205183</v>
       </c>
       <c r="M5">
-        <v>12.13579408556384</v>
+        <v>18.97091172267248</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30595450527694</v>
+        <v>22.22741304836941</v>
       </c>
       <c r="C6">
-        <v>20.63658284782682</v>
+        <v>15.02276536592789</v>
       </c>
       <c r="D6">
-        <v>6.096253888172245</v>
+        <v>5.887592438248122</v>
       </c>
       <c r="E6">
-        <v>6.471801863367683</v>
+        <v>7.337282204912408</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.13450459580316</v>
+        <v>3.788285121802635</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>57.83806550572083</v>
+        <v>49.27681876573515</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.877555372111009</v>
+        <v>10.76384413835275</v>
       </c>
       <c r="M6">
-        <v>12.11716465374399</v>
+        <v>18.97280684937203</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71058802190994</v>
+        <v>22.24356312048354</v>
       </c>
       <c r="C7">
-        <v>21.1989868793638</v>
+        <v>15.19781488821149</v>
       </c>
       <c r="D7">
-        <v>6.233114860142711</v>
+        <v>5.915696450955046</v>
       </c>
       <c r="E7">
-        <v>6.570738640709156</v>
+        <v>7.366746072109843</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.128662680424165</v>
+        <v>3.786417545325294</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.98177027342412</v>
+        <v>49.66149761813019</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.912819594220681</v>
+        <v>10.76197376641343</v>
       </c>
       <c r="M7">
-        <v>12.24768032293762</v>
+        <v>18.96019001951029</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.74426377213968</v>
+        <v>22.3409793636916</v>
       </c>
       <c r="C8">
-        <v>23.5936549005349</v>
+        <v>15.95989191155796</v>
       </c>
       <c r="D8">
-        <v>6.907656609072213</v>
+        <v>6.042797560424603</v>
       </c>
       <c r="E8">
-        <v>7.001801107015976</v>
+        <v>7.492951850141698</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.103054177866244</v>
+        <v>3.778568401799459</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.91240686713242</v>
+        <v>51.32672769567262</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.077589095189543</v>
+        <v>10.75724196800594</v>
       </c>
       <c r="M8">
-        <v>12.85430346345071</v>
+        <v>18.9178634660993</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.79685550613276</v>
+        <v>22.62547412140002</v>
       </c>
       <c r="C9">
-        <v>28.02064849581323</v>
+        <v>17.40094607383447</v>
       </c>
       <c r="D9">
-        <v>8.189327311418069</v>
+        <v>6.301018311958901</v>
       </c>
       <c r="E9">
-        <v>7.837494148574585</v>
+        <v>7.726377077991578</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.052474342415144</v>
+        <v>3.764569001277986</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.21287396525986</v>
+        <v>54.45596685694408</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.438090545098398</v>
+        <v>10.76065045551272</v>
       </c>
       <c r="M9">
-        <v>14.65312714066682</v>
+        <v>18.88327106079666</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75083429304469</v>
+        <v>22.89049649922995</v>
       </c>
       <c r="C10">
-        <v>31.16774196486211</v>
+        <v>18.41490315491464</v>
       </c>
       <c r="D10">
-        <v>9.093715735309596</v>
+        <v>6.494303391631452</v>
       </c>
       <c r="E10">
-        <v>8.460188715278747</v>
+        <v>7.889008296111312</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.013864687705037</v>
+        <v>3.75511708171024</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.90866832853337</v>
+        <v>56.65564087220397</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.73163924878564</v>
+        <v>10.77091265920829</v>
       </c>
       <c r="M10">
-        <v>16.34011178375227</v>
+        <v>18.8877091942555</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.10923354092349</v>
+        <v>23.02290310230336</v>
       </c>
       <c r="C11">
-        <v>32.59516675206198</v>
+        <v>18.86431353321538</v>
       </c>
       <c r="D11">
-        <v>9.50226268967134</v>
+        <v>6.582612237254358</v>
       </c>
       <c r="E11">
-        <v>8.750255288393939</v>
+        <v>7.961011923706958</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.995603786789828</v>
+        <v>3.750994747449285</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.95652131237156</v>
+        <v>57.63170675421896</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.873327744804764</v>
+        <v>10.77726881153159</v>
       </c>
       <c r="M11">
-        <v>17.10625609027679</v>
+        <v>18.89626804159801</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.62808386033889</v>
+        <v>23.07471124873447</v>
       </c>
       <c r="C12">
-        <v>33.13726110686662</v>
+        <v>19.03264021762907</v>
       </c>
       <c r="D12">
-        <v>9.657152643392015</v>
+        <v>6.616075399912225</v>
       </c>
       <c r="E12">
-        <v>8.861663768049393</v>
+        <v>7.98798882530563</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.988544436302202</v>
+        <v>3.74945896794457</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.11480180645562</v>
+        <v>57.99755599720697</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.928382097848543</v>
+        <v>10.77991843009742</v>
       </c>
       <c r="M12">
-        <v>17.3974086033781</v>
+        <v>18.90045282241043</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.51609609200887</v>
+        <v>23.06347982695181</v>
       </c>
       <c r="C13">
-        <v>33.02040010018814</v>
+        <v>18.99647278595284</v>
       </c>
       <c r="D13">
-        <v>9.623774793414162</v>
+        <v>6.608868012848795</v>
       </c>
       <c r="E13">
-        <v>8.837588714644468</v>
+        <v>7.982191808107668</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.990072065500777</v>
+        <v>3.74978860612982</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.86508617553801</v>
+        <v>57.91893477046342</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.916458426894221</v>
+        <v>10.77933699556859</v>
       </c>
       <c r="M13">
-        <v>17.33463448048781</v>
+        <v>18.89950953850473</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.15181413493305</v>
+        <v>23.02713216340462</v>
       </c>
       <c r="C14">
-        <v>32.63971908018627</v>
+        <v>18.87819985603896</v>
       </c>
       <c r="D14">
-        <v>9.514997881607711</v>
+        <v>6.58536500254389</v>
       </c>
       <c r="E14">
-        <v>8.75938544235861</v>
+        <v>7.963237154548676</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.995026204369068</v>
+        <v>3.750867893153852</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.05170428282666</v>
+        <v>57.66188211675344</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.877827461742119</v>
+        <v>10.77748193407719</v>
       </c>
       <c r="M14">
-        <v>17.13018044716026</v>
+        <v>18.89659339632006</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.92934394958883</v>
+        <v>23.00508436404348</v>
       </c>
       <c r="C15">
-        <v>32.40681983064476</v>
+        <v>18.80550847550415</v>
       </c>
       <c r="D15">
-        <v>9.448413267910025</v>
+        <v>6.57097071766342</v>
       </c>
       <c r="E15">
-        <v>8.711708558657957</v>
+        <v>7.951589066409483</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.998040419428776</v>
+        <v>3.751532269646785</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.5541581938478</v>
+        <v>57.50393300892618</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.854355257261989</v>
+        <v>10.77637725704617</v>
       </c>
       <c r="M15">
-        <v>17.00512293229864</v>
+        <v>18.89493016041953</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.66253819290437</v>
+        <v>22.88207892169974</v>
       </c>
       <c r="C16">
-        <v>31.07454218818713</v>
+        <v>18.38528134969757</v>
       </c>
       <c r="D16">
-        <v>9.067005517601379</v>
+        <v>6.488537096333278</v>
       </c>
       <c r="E16">
-        <v>8.441415047393525</v>
+        <v>7.884262462580765</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.015040575762535</v>
+        <v>3.755390034216771</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.70982306672187</v>
+        <v>56.59133785946901</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.722561437306872</v>
+        <v>10.77053123336417</v>
       </c>
       <c r="M16">
-        <v>16.29011258253104</v>
+        <v>18.88728175415779</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.89058905715796</v>
+        <v>22.80962990091605</v>
       </c>
       <c r="C17">
-        <v>30.2575020262699</v>
+        <v>18.12433762904989</v>
       </c>
       <c r="D17">
-        <v>8.83266212136248</v>
+        <v>6.438041260168541</v>
       </c>
       <c r="E17">
-        <v>8.277702219844771</v>
+        <v>7.842449573907162</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.025263578787575</v>
+        <v>3.757801904937962</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.96776481172151</v>
+        <v>56.02502431403568</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.643938343250594</v>
+        <v>10.76737719605612</v>
       </c>
       <c r="M17">
-        <v>15.85190826893635</v>
+        <v>18.88426734320211</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.44778350412189</v>
+        <v>22.76907659058643</v>
       </c>
       <c r="C18">
-        <v>29.78700568082684</v>
+        <v>17.97314271132411</v>
       </c>
       <c r="D18">
-        <v>8.697560679349186</v>
+        <v>6.409035275815368</v>
       </c>
       <c r="E18">
-        <v>8.184134544067838</v>
+        <v>7.818213986892074</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.031081221980232</v>
+        <v>3.759205861139395</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.96566568145812</v>
+        <v>55.69699499317255</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.599466567101926</v>
+        <v>10.76572195178021</v>
       </c>
       <c r="M18">
-        <v>15.59965524760244</v>
+        <v>18.88314895685948</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.29800305698559</v>
+        <v>22.75553884741885</v>
       </c>
       <c r="C19">
-        <v>29.62755231465803</v>
+        <v>17.92176554123771</v>
       </c>
       <c r="D19">
-        <v>8.651748412984746</v>
+        <v>6.399221861922985</v>
       </c>
       <c r="E19">
-        <v>8.152541467332576</v>
+        <v>7.809976454765738</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.033041406352082</v>
+        <v>3.759684094452063</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.62625504563721</v>
+        <v>55.58554213656485</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.584532222425409</v>
+        <v>10.76518880034403</v>
       </c>
       <c r="M19">
-        <v>15.51417927728661</v>
+        <v>18.88287587579545</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.97262555367573</v>
+        <v>22.81722680936352</v>
       </c>
       <c r="C20">
-        <v>30.34452130384779</v>
+        <v>18.15223126701905</v>
       </c>
       <c r="D20">
-        <v>8.857637040088273</v>
+        <v>6.443412945925544</v>
       </c>
       <c r="E20">
-        <v>8.295064421411141</v>
+        <v>7.846919905371766</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.024182054833678</v>
+        <v>3.757543429362696</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.1531976842347</v>
+        <v>56.08554921860978</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.652228847821927</v>
+        <v>10.76769650563973</v>
       </c>
       <c r="M20">
-        <v>15.89856987246312</v>
+        <v>18.8845245119439</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.25866905098765</v>
+        <v>23.03776336702267</v>
       </c>
       <c r="C21">
-        <v>32.75147133576134</v>
+        <v>18.91299095087086</v>
       </c>
       <c r="D21">
-        <v>9.546937720761658</v>
+        <v>6.592268048569416</v>
       </c>
       <c r="E21">
-        <v>8.782307426803161</v>
+        <v>7.968812484741833</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.993575391101901</v>
+        <v>3.750550196868611</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.29046501856303</v>
+        <v>57.7374886579701</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.88913411823091</v>
+        <v>10.77802022503855</v>
       </c>
       <c r="M21">
-        <v>17.19019405671719</v>
+        <v>18.89742430317574</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.78041538383894</v>
+        <v>23.19160362273157</v>
       </c>
       <c r="C22">
-        <v>34.33520188253652</v>
+        <v>19.39932019561704</v>
       </c>
       <c r="D22">
-        <v>9.998919194272258</v>
+        <v>6.689670486576996</v>
       </c>
       <c r="E22">
-        <v>9.110316559761147</v>
+        <v>8.046787980537625</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.972699205203512</v>
+        <v>3.746126826824578</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>86.67486148250657</v>
+        <v>58.79508385345014</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.052293695338159</v>
+        <v>10.78618181822202</v>
       </c>
       <c r="M22">
-        <v>18.04121664279453</v>
+        <v>18.9113567936405</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.96469903021183</v>
+        <v>23.10862066210981</v>
       </c>
       <c r="C23">
-        <v>33.48805135553572</v>
+        <v>19.1407971772909</v>
       </c>
       <c r="D23">
-        <v>9.757304868035702</v>
+        <v>6.637684698164399</v>
       </c>
       <c r="E23">
-        <v>8.934124783625737</v>
+        <v>8.005327000120161</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.983939566296838</v>
+        <v>3.748474284902933</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.86443795294683</v>
+        <v>58.23271359562787</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.964353238460889</v>
+        <v>10.78169643695161</v>
       </c>
       <c r="M23">
-        <v>17.58587413437364</v>
+        <v>18.90341647666991</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.93553391045054</v>
+        <v>22.81378882257745</v>
       </c>
       <c r="C24">
-        <v>30.30518243744317</v>
+        <v>18.13962420108221</v>
       </c>
       <c r="D24">
-        <v>8.846347087427169</v>
+        <v>6.4409843272443</v>
       </c>
       <c r="E24">
-        <v>8.287213289113041</v>
+        <v>7.844899481133584</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.024671194627338</v>
+        <v>3.757660232142116</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.06936551927367</v>
+        <v>56.05819351680547</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.648478453969545</v>
+        <v>10.76755165347399</v>
       </c>
       <c r="M24">
-        <v>15.87747525542788</v>
+        <v>18.88440633175293</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.70988007889682</v>
+        <v>22.5385838527906</v>
       </c>
       <c r="C25">
-        <v>26.84664662549779</v>
+        <v>17.01816923038606</v>
       </c>
       <c r="D25">
-        <v>7.85059479623834</v>
+        <v>6.230398920367971</v>
       </c>
       <c r="E25">
-        <v>7.61119384582747</v>
+        <v>7.664766191290556</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.066306401501618</v>
+        <v>3.768208715951874</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.72918600523091</v>
+        <v>53.62577442008024</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.33604392785181</v>
+        <v>10.75836725090696</v>
       </c>
       <c r="M25">
-        <v>14.02434893958616</v>
+        <v>18.88740840821069</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.37372227330574</v>
+        <v>21.31203156318792</v>
       </c>
       <c r="C2">
-        <v>16.16327233346146</v>
+        <v>24.22258936243471</v>
       </c>
       <c r="D2">
-        <v>6.077913852366012</v>
+        <v>7.090507252647127</v>
       </c>
       <c r="E2">
-        <v>7.526206967384444</v>
+        <v>7.117542041056335</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.77653650844453</v>
+        <v>2.096127719656558</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>51.7693511630784</v>
+        <v>65.22124061562447</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.75681739180708</v>
+        <v>7.124592721148821</v>
       </c>
       <c r="M2">
-        <v>18.9096567644111</v>
+        <v>13.02644747968175</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.28587230375038</v>
+        <v>19.65402097690586</v>
       </c>
       <c r="C3">
-        <v>15.56972250320391</v>
+        <v>22.37677608997222</v>
       </c>
       <c r="D3">
-        <v>5.976801115551976</v>
+        <v>6.553039974435078</v>
       </c>
       <c r="E3">
-        <v>7.42870064576338</v>
+        <v>6.780809039611031</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.782535546321491</v>
+        <v>2.116217365180767</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>50.47576031848161</v>
+        <v>61.3954856710538</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.75901058246742</v>
+        <v>6.990972857172018</v>
       </c>
       <c r="M3">
-        <v>18.93712084349249</v>
+        <v>12.5360539272724</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.24376640731675</v>
+        <v>18.71532424157482</v>
       </c>
       <c r="C4">
-        <v>15.19985834493625</v>
+        <v>21.20551841275087</v>
       </c>
       <c r="D4">
-        <v>5.91602708738063</v>
+        <v>6.234710061759626</v>
       </c>
       <c r="E4">
-        <v>7.367088767154117</v>
+        <v>6.571892944018448</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.786395907730004</v>
+        <v>2.128594454437148</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>49.66598219238842</v>
+        <v>58.995088231681</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.761953805982</v>
+        <v>6.913237064969461</v>
       </c>
       <c r="M4">
-        <v>18.96004966829457</v>
+        <v>12.249223920164</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.22958749001019</v>
+        <v>18.36423327570622</v>
       </c>
       <c r="C5">
-        <v>15.04803411239212</v>
+        <v>20.71813550979369</v>
       </c>
       <c r="D5">
-        <v>5.89162214729925</v>
+        <v>6.116037745729417</v>
       </c>
       <c r="E5">
-        <v>7.34154900705817</v>
+        <v>6.486092221372935</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.788013768470174</v>
+        <v>2.133661477952325</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>49.33241383217405</v>
+        <v>58.00352890133571</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.76355419205183</v>
+        <v>6.882584746266891</v>
       </c>
       <c r="M5">
-        <v>18.97091172267248</v>
+        <v>12.1357940855638</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.22741304836941</v>
+        <v>18.30595450527693</v>
       </c>
       <c r="C6">
-        <v>15.02276536592789</v>
+        <v>20.636582847827</v>
       </c>
       <c r="D6">
-        <v>5.887592438248122</v>
+        <v>6.096253888172249</v>
       </c>
       <c r="E6">
-        <v>7.337282204912408</v>
+        <v>6.471801863367628</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.788285121802635</v>
+        <v>2.134504595803411</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>49.27681876573515</v>
+        <v>57.83806550572111</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.76384413835275</v>
+        <v>6.877555372110952</v>
       </c>
       <c r="M6">
-        <v>18.97280684937203</v>
+        <v>12.11716465374396</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.24356312048354</v>
+        <v>18.71058802191001</v>
       </c>
       <c r="C7">
-        <v>15.19781488821149</v>
+        <v>21.1989868793639</v>
       </c>
       <c r="D7">
-        <v>5.915696450955046</v>
+        <v>6.23311486014276</v>
       </c>
       <c r="E7">
-        <v>7.366746072109843</v>
+        <v>6.570738640709337</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.786417545325294</v>
+        <v>2.128662680424424</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>49.66149761813019</v>
+        <v>58.98177027342403</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.76197376641343</v>
+        <v>6.91281959422064</v>
       </c>
       <c r="M7">
-        <v>18.96019001951029</v>
+        <v>12.24768032293761</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.3409793636916</v>
+        <v>20.74426377213958</v>
       </c>
       <c r="C8">
-        <v>15.95989191155796</v>
+        <v>23.59365490053468</v>
       </c>
       <c r="D8">
-        <v>6.042797560424603</v>
+        <v>6.907656609072164</v>
       </c>
       <c r="E8">
-        <v>7.492951850141698</v>
+        <v>7.001801107015989</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.778568401799459</v>
+        <v>2.103054177866213</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>51.32672769567262</v>
+        <v>63.91240686713216</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.75724196800594</v>
+        <v>7.077589095189564</v>
       </c>
       <c r="M8">
-        <v>18.9178634660993</v>
+        <v>12.85430346345076</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.62547412140002</v>
+        <v>24.79685550613287</v>
       </c>
       <c r="C9">
-        <v>17.40094607383447</v>
+        <v>28.0206484958134</v>
       </c>
       <c r="D9">
-        <v>6.301018311958901</v>
+        <v>8.189327311418234</v>
       </c>
       <c r="E9">
-        <v>7.726377077991578</v>
+        <v>7.837494148574696</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.764569001277986</v>
+        <v>2.052474342415006</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>54.45596685694408</v>
+        <v>73.21287396526104</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.76065045551272</v>
+        <v>7.438090545098418</v>
       </c>
       <c r="M9">
-        <v>18.88327106079666</v>
+        <v>14.65312714066685</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.89049649922995</v>
+        <v>27.75083429304475</v>
       </c>
       <c r="C10">
-        <v>18.41490315491464</v>
+        <v>31.16774196486234</v>
       </c>
       <c r="D10">
-        <v>6.494303391631452</v>
+        <v>9.093715735309571</v>
       </c>
       <c r="E10">
-        <v>7.889008296111312</v>
+        <v>8.460188715278672</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.75511708171024</v>
+        <v>2.013864687705036</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>56.65564087220397</v>
+        <v>79.90866832853413</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.77091265920829</v>
+        <v>7.731639248785653</v>
       </c>
       <c r="M10">
-        <v>18.8877091942555</v>
+        <v>16.34011178375237</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.02290310230336</v>
+        <v>29.10923354092337</v>
       </c>
       <c r="C11">
-        <v>18.86431353321538</v>
+        <v>32.59516675206203</v>
       </c>
       <c r="D11">
-        <v>6.582612237254358</v>
+        <v>9.502262689671316</v>
       </c>
       <c r="E11">
-        <v>7.961011923706958</v>
+        <v>8.750255288393904</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.750994747449285</v>
+        <v>1.995603786789582</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>57.63170675421896</v>
+        <v>82.95652131237166</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.77726881153159</v>
+        <v>7.873327744804756</v>
       </c>
       <c r="M11">
-        <v>18.89626804159801</v>
+        <v>17.10625609027677</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.07471124873447</v>
+        <v>29.62808386033894</v>
       </c>
       <c r="C12">
-        <v>19.03264021762907</v>
+        <v>33.13726110686635</v>
       </c>
       <c r="D12">
-        <v>6.616075399912225</v>
+        <v>9.657152643392072</v>
       </c>
       <c r="E12">
-        <v>7.98798882530563</v>
+        <v>8.861663768049274</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.74945896794457</v>
+        <v>1.988544436302215</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>57.99755599720697</v>
+        <v>84.1148018064558</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.77991843009742</v>
+        <v>7.928382097848605</v>
       </c>
       <c r="M12">
-        <v>18.90045282241043</v>
+        <v>17.3974086033781</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.06347982695181</v>
+        <v>29.51609609200904</v>
       </c>
       <c r="C13">
-        <v>18.99647278595284</v>
+        <v>33.02040010018857</v>
       </c>
       <c r="D13">
-        <v>6.608868012848795</v>
+        <v>9.623774793414178</v>
       </c>
       <c r="E13">
-        <v>7.982191808107668</v>
+        <v>8.83758871464471</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.74978860612982</v>
+        <v>1.990072065500777</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>57.91893477046342</v>
+        <v>83.86508617553856</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.77933699556859</v>
+        <v>7.916458426894231</v>
       </c>
       <c r="M13">
-        <v>18.89950953850473</v>
+        <v>17.33463448048785</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.02713216340462</v>
+        <v>29.15181413493307</v>
       </c>
       <c r="C14">
-        <v>18.87819985603896</v>
+        <v>32.63971908018629</v>
       </c>
       <c r="D14">
-        <v>6.58536500254389</v>
+        <v>9.51499788160786</v>
       </c>
       <c r="E14">
-        <v>7.963237154548676</v>
+        <v>8.759385442358541</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.750867893153852</v>
+        <v>1.995026204369082</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>57.66188211675344</v>
+        <v>83.05170428282665</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.77748193407719</v>
+        <v>7.877827461742106</v>
       </c>
       <c r="M14">
-        <v>18.89659339632006</v>
+        <v>17.13018044716028</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.00508436404348</v>
+        <v>28.92934394958898</v>
       </c>
       <c r="C15">
-        <v>18.80550847550415</v>
+        <v>32.40681983064506</v>
       </c>
       <c r="D15">
-        <v>6.57097071766342</v>
+        <v>9.448413267910096</v>
       </c>
       <c r="E15">
-        <v>7.951589066409483</v>
+        <v>8.711708558658041</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.751532269646785</v>
+        <v>1.998040419428627</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>57.50393300892618</v>
+        <v>82.55415819384908</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.77637725704617</v>
+        <v>7.85435525726207</v>
       </c>
       <c r="M15">
-        <v>18.89493016041953</v>
+        <v>17.0051229322987</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.88207892169974</v>
+        <v>27.66253819290444</v>
       </c>
       <c r="C16">
-        <v>18.38528134969757</v>
+        <v>31.07454218818744</v>
       </c>
       <c r="D16">
-        <v>6.488537096333278</v>
+        <v>9.067005517601517</v>
       </c>
       <c r="E16">
-        <v>7.884262462580765</v>
+        <v>8.441415047393706</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.755390034216771</v>
+        <v>2.015040575762522</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>56.59133785946901</v>
+        <v>79.70982306672262</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.77053123336417</v>
+        <v>7.722561437306906</v>
       </c>
       <c r="M16">
-        <v>18.88728175415779</v>
+        <v>16.29011258253107</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.80962990091605</v>
+        <v>26.89058905715797</v>
       </c>
       <c r="C17">
-        <v>18.12433762904989</v>
+        <v>30.25750202626993</v>
       </c>
       <c r="D17">
-        <v>6.438041260168541</v>
+        <v>8.832662121362416</v>
       </c>
       <c r="E17">
-        <v>7.842449573907162</v>
+        <v>8.277702219844837</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.757801904937962</v>
+        <v>2.025263578787537</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>56.02502431403568</v>
+        <v>77.96776481172236</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.76737719605612</v>
+        <v>7.643938343250628</v>
       </c>
       <c r="M17">
-        <v>18.88426734320211</v>
+        <v>15.85190826893633</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.76907659058643</v>
+        <v>26.44778350412176</v>
       </c>
       <c r="C18">
-        <v>17.97314271132411</v>
+        <v>29.78700568082696</v>
       </c>
       <c r="D18">
-        <v>6.409035275815368</v>
+        <v>8.697560679349175</v>
       </c>
       <c r="E18">
-        <v>7.818213986892074</v>
+        <v>8.18413454406779</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.759205861139395</v>
+        <v>2.031081221980083</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>55.69699499317255</v>
+        <v>76.96566568145829</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.76572195178021</v>
+        <v>7.59946656710188</v>
       </c>
       <c r="M18">
-        <v>18.88314895685948</v>
+        <v>15.59965524760242</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.75553884741885</v>
+        <v>26.29800305698549</v>
       </c>
       <c r="C19">
-        <v>17.92176554123771</v>
+        <v>29.62755231465795</v>
       </c>
       <c r="D19">
-        <v>6.399221861922985</v>
+        <v>8.651748412984787</v>
       </c>
       <c r="E19">
-        <v>7.809976454765738</v>
+        <v>8.152541467332389</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.759684094452063</v>
+        <v>2.033041406352083</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>55.58554213656485</v>
+        <v>76.62625504563674</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.76518880034403</v>
+        <v>7.584532222425457</v>
       </c>
       <c r="M19">
-        <v>18.88287587579545</v>
+        <v>15.51417927728654</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.81722680936352</v>
+        <v>26.97262555367598</v>
       </c>
       <c r="C20">
-        <v>18.15223126701905</v>
+        <v>30.34452130384772</v>
       </c>
       <c r="D20">
-        <v>6.443412945925544</v>
+        <v>8.85763704008836</v>
       </c>
       <c r="E20">
-        <v>7.846919905371766</v>
+        <v>8.295064421411134</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.757543429362696</v>
+        <v>2.024182054833666</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>56.08554921860978</v>
+        <v>78.1531976842352</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.76769650563973</v>
+        <v>7.652228847821926</v>
       </c>
       <c r="M20">
-        <v>18.8845245119439</v>
+        <v>15.89856987246326</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03776336702267</v>
+        <v>29.25866905098786</v>
       </c>
       <c r="C21">
-        <v>18.91299095087086</v>
+        <v>32.75147133576164</v>
       </c>
       <c r="D21">
-        <v>6.592268048569416</v>
+        <v>9.546937720761662</v>
       </c>
       <c r="E21">
-        <v>7.968812484741833</v>
+        <v>8.782307426803182</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.750550196868611</v>
+        <v>1.993575391101983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>57.7374886579701</v>
+        <v>83.29046501856379</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.77802022503855</v>
+        <v>7.889134118230928</v>
       </c>
       <c r="M21">
-        <v>18.89742430317574</v>
+        <v>17.19019405671732</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.19160362273157</v>
+        <v>30.78041538383907</v>
       </c>
       <c r="C22">
-        <v>19.39932019561704</v>
+        <v>34.33520188253667</v>
       </c>
       <c r="D22">
-        <v>6.689670486576996</v>
+        <v>9.998919194272231</v>
       </c>
       <c r="E22">
-        <v>8.046787980537625</v>
+        <v>9.110316559761255</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.746126826824578</v>
+        <v>1.972699205203569</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>58.79508385345014</v>
+        <v>86.67486148250742</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.78618181822202</v>
+        <v>8.052293695338209</v>
       </c>
       <c r="M22">
-        <v>18.9113567936405</v>
+        <v>18.04121664279459</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.10862066210981</v>
+        <v>29.96469903021151</v>
       </c>
       <c r="C23">
-        <v>19.1407971772909</v>
+        <v>33.48805135553539</v>
       </c>
       <c r="D23">
-        <v>6.637684698164399</v>
+        <v>9.757304868035611</v>
       </c>
       <c r="E23">
-        <v>8.005327000120161</v>
+        <v>8.934124783625599</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.748474284902933</v>
+        <v>1.983939566296552</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>58.23271359562787</v>
+        <v>84.86443795294518</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.78169643695161</v>
+        <v>7.964353238460861</v>
       </c>
       <c r="M23">
-        <v>18.90341647666991</v>
+        <v>17.58587413437349</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.81378882257745</v>
+        <v>26.93553391045051</v>
       </c>
       <c r="C24">
-        <v>18.13962420108221</v>
+        <v>30.30518243744305</v>
       </c>
       <c r="D24">
-        <v>6.4409843272443</v>
+        <v>8.846347087427118</v>
       </c>
       <c r="E24">
-        <v>7.844899481133584</v>
+        <v>8.287213289113051</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.757660232142116</v>
+        <v>2.024671194627313</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>56.05819351680547</v>
+        <v>78.06936551927291</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.76755165347399</v>
+        <v>7.648478453969582</v>
       </c>
       <c r="M24">
-        <v>18.88440633175293</v>
+        <v>15.87747525542785</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.5385838527906</v>
+        <v>23.70988007889684</v>
       </c>
       <c r="C25">
-        <v>17.01816923038606</v>
+        <v>26.84664662549764</v>
       </c>
       <c r="D25">
-        <v>6.230398920367971</v>
+        <v>7.850594796238221</v>
       </c>
       <c r="E25">
-        <v>7.664766191290556</v>
+        <v>7.611193845827523</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.768208715951874</v>
+        <v>2.066306401501612</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>53.62577442008024</v>
+        <v>70.72918600523043</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.75836725090696</v>
+        <v>7.336043927851811</v>
       </c>
       <c r="M25">
-        <v>18.88740840821069</v>
+        <v>14.02434893958612</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31203156318792</v>
+        <v>11.39485540154934</v>
       </c>
       <c r="C2">
-        <v>24.22258936243471</v>
+        <v>8.683338639342274</v>
       </c>
       <c r="D2">
-        <v>7.090507252647127</v>
+        <v>10.607064183085</v>
       </c>
       <c r="E2">
-        <v>7.117542041056335</v>
+        <v>10.35332634841641</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.096127719656558</v>
+        <v>51.12034370975908</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.895543057222508</v>
       </c>
       <c r="I2">
-        <v>65.22124061562447</v>
+        <v>4.208447893717011</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>15.59005524332657</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.81722223295494</v>
       </c>
       <c r="L2">
-        <v>7.124592721148821</v>
+        <v>5.019541702338943</v>
       </c>
       <c r="M2">
-        <v>13.02644747968175</v>
+        <v>10.89564480438055</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.27568299022388</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.65402097690586</v>
+        <v>10.65323602984049</v>
       </c>
       <c r="C3">
-        <v>22.37677608997222</v>
+        <v>8.099393985110497</v>
       </c>
       <c r="D3">
-        <v>6.553039974435078</v>
+        <v>10.15696680823411</v>
       </c>
       <c r="E3">
-        <v>6.780809039611031</v>
+        <v>9.881708639674436</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.116217365180767</v>
+        <v>49.36117149840291</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.177112134698987</v>
       </c>
       <c r="I3">
-        <v>61.3954856710538</v>
+        <v>4.419467224814636</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>15.30072541019332</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>24.29235194568333</v>
       </c>
       <c r="L3">
-        <v>6.990972857172018</v>
+        <v>4.877244737289989</v>
       </c>
       <c r="M3">
-        <v>12.5360539272724</v>
+        <v>10.20578333517874</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.72151087402257</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.71532424157482</v>
+        <v>10.17018557171246</v>
       </c>
       <c r="C4">
-        <v>21.20551841275087</v>
+        <v>7.7577623718212</v>
       </c>
       <c r="D4">
-        <v>6.234710061759626</v>
+        <v>9.872160363225142</v>
       </c>
       <c r="E4">
-        <v>6.571892944018448</v>
+        <v>9.580445136863554</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.128594454437148</v>
+        <v>48.24655495205534</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.355911738603069</v>
       </c>
       <c r="I4">
-        <v>58.995088231681</v>
+        <v>4.55390073057875</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15.12028880967356</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>23.96167526635421</v>
       </c>
       <c r="L4">
-        <v>6.913237064969461</v>
+        <v>4.786887550028396</v>
       </c>
       <c r="M4">
-        <v>12.249223920164</v>
+        <v>9.758897614878419</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.36988228080439</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.36423327570622</v>
+        <v>9.964160517487203</v>
       </c>
       <c r="C5">
-        <v>20.71813550979369</v>
+        <v>7.625814885441456</v>
       </c>
       <c r="D5">
-        <v>6.116037745729417</v>
+        <v>9.753775320946039</v>
       </c>
       <c r="E5">
-        <v>6.486092221372935</v>
+        <v>9.454184255182382</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.133661477952325</v>
+        <v>47.74420637005394</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.43071997534383</v>
       </c>
       <c r="I5">
-        <v>58.00352890133571</v>
+        <v>4.612447572752499</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>15.03802599934405</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>23.80735042901765</v>
       </c>
       <c r="L5">
-        <v>6.882584746266891</v>
+        <v>4.748984212818974</v>
       </c>
       <c r="M5">
-        <v>12.1357940855638</v>
+        <v>9.572288708165869</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.224769314485</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30595450527693</v>
+        <v>9.926849627473908</v>
       </c>
       <c r="C6">
-        <v>20.636582847827</v>
+        <v>7.615542775207404</v>
       </c>
       <c r="D6">
-        <v>6.096253888172249</v>
+        <v>9.733603071567099</v>
       </c>
       <c r="E6">
-        <v>6.471801863367628</v>
+        <v>9.4322751511931</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.134504595803411</v>
+        <v>47.61143423128063</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.443758811293997</v>
       </c>
       <c r="I6">
-        <v>57.83806550572111</v>
+        <v>4.625446166482132</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>15.01443736411394</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>23.76012216127567</v>
       </c>
       <c r="L6">
-        <v>6.877555372110952</v>
+        <v>4.742236765141829</v>
       </c>
       <c r="M6">
-        <v>12.11716465374396</v>
+        <v>9.542618121443724</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.20160050151908</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71058802191001</v>
+        <v>10.16028852885707</v>
       </c>
       <c r="C7">
-        <v>21.1989868793639</v>
+        <v>7.787393023852015</v>
       </c>
       <c r="D7">
-        <v>6.23311486014276</v>
+        <v>9.869506338509531</v>
       </c>
       <c r="E7">
-        <v>6.570738640709337</v>
+        <v>9.576681899604145</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.128662680424424</v>
+        <v>48.10792767828025</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.358331006877918</v>
       </c>
       <c r="I7">
-        <v>58.98177027342403</v>
+        <v>4.563187712244518</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15.09236016015894</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>23.9013594458403</v>
       </c>
       <c r="L7">
-        <v>6.91281959422064</v>
+        <v>4.785278362108389</v>
       </c>
       <c r="M7">
-        <v>12.24768032293761</v>
+        <v>9.760858338802834</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.37084603817589</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.74426377213958</v>
+        <v>11.13611587558495</v>
       </c>
       <c r="C8">
-        <v>23.59365490053468</v>
+        <v>8.516036812886991</v>
       </c>
       <c r="D8">
-        <v>6.907656609072164</v>
+        <v>10.45237409433638</v>
       </c>
       <c r="E8">
-        <v>7.001801107015989</v>
+        <v>10.19061281058389</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.103054177866213</v>
+        <v>50.35418606068484</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.993221702295688</v>
       </c>
       <c r="I8">
-        <v>63.91240686713216</v>
+        <v>4.291051284499218</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>15.45635133393566</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>24.5631334024002</v>
       </c>
       <c r="L8">
-        <v>7.077589095189564</v>
+        <v>4.969707551205191</v>
       </c>
       <c r="M8">
-        <v>12.85430346345076</v>
+        <v>10.66805668569165</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.09065119969074</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.79685550613287</v>
+        <v>12.84267999229873</v>
       </c>
       <c r="C9">
-        <v>28.0206484958134</v>
+        <v>9.896551652531176</v>
       </c>
       <c r="D9">
-        <v>8.189327311418234</v>
+        <v>11.52548604656334</v>
       </c>
       <c r="E9">
-        <v>7.837494148574696</v>
+        <v>11.30243511554941</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.052474342415006</v>
+        <v>54.68821658940993</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.320421128792843</v>
       </c>
       <c r="I9">
-        <v>73.21287396526104</v>
+        <v>3.781054400061385</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>16.19193479988621</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25.88969536046947</v>
       </c>
       <c r="L9">
-        <v>7.438090545098418</v>
+        <v>5.309457475735054</v>
       </c>
       <c r="M9">
-        <v>14.65312714066685</v>
+        <v>12.25556871902631</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.40188328796533</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75083429304475</v>
+        <v>13.98276693114276</v>
       </c>
       <c r="C10">
-        <v>31.16774196486234</v>
+        <v>10.8051436564527</v>
       </c>
       <c r="D10">
-        <v>9.093715735309571</v>
+        <v>12.15007809988879</v>
       </c>
       <c r="E10">
-        <v>8.460188715278672</v>
+        <v>11.85414362548364</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.013864687705036</v>
+        <v>57.04957717476138</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.886022797335244</v>
       </c>
       <c r="I10">
-        <v>79.90866832853413</v>
+        <v>3.44235342564302</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>16.58092444137228</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.56290334474043</v>
       </c>
       <c r="L10">
-        <v>7.731639248785653</v>
+        <v>5.47832850542937</v>
       </c>
       <c r="M10">
-        <v>16.34011178375237</v>
+        <v>13.31086703006283</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.19710339837866</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.10923354092337</v>
+        <v>14.64101233764511</v>
       </c>
       <c r="C11">
-        <v>32.59516675206203</v>
+        <v>10.87412906750698</v>
       </c>
       <c r="D11">
-        <v>9.502262689671316</v>
+        <v>11.43852527516355</v>
       </c>
       <c r="E11">
-        <v>8.750255288393904</v>
+        <v>10.38906890542181</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.995603786789582</v>
+        <v>53.06096612010813</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.58709720573472</v>
       </c>
       <c r="I11">
-        <v>82.95652131237166</v>
+        <v>3.383040819037993</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>15.67786466001349</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.8524424680753</v>
       </c>
       <c r="L11">
-        <v>7.873327744804756</v>
+        <v>5.0705347578816</v>
       </c>
       <c r="M11">
-        <v>17.10625609027677</v>
+        <v>13.7610738301208</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.64250757864312</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.62808386033894</v>
+        <v>14.97852694712942</v>
       </c>
       <c r="C12">
-        <v>33.13726110686635</v>
+        <v>10.70920401740728</v>
       </c>
       <c r="D12">
-        <v>9.657152643392072</v>
+        <v>10.70351505891824</v>
       </c>
       <c r="E12">
-        <v>8.861663768049274</v>
+        <v>9.109085351714864</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.988544436302215</v>
+        <v>49.35807705868696</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.759418793500823</v>
       </c>
       <c r="I12">
-        <v>84.1148018064558</v>
+        <v>3.38182661482135</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.87704082010721</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.3661119707422</v>
       </c>
       <c r="L12">
-        <v>7.928382097848605</v>
+        <v>4.827508618988558</v>
       </c>
       <c r="M12">
-        <v>17.3974086033781</v>
+        <v>13.92389415848248</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.99634919058762</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.51609609200904</v>
+        <v>15.09247679506294</v>
       </c>
       <c r="C13">
-        <v>33.02040010018857</v>
+        <v>10.38309197653327</v>
       </c>
       <c r="D13">
-        <v>9.623774793414178</v>
+        <v>9.889522638165243</v>
       </c>
       <c r="E13">
-        <v>8.83758871464471</v>
+        <v>7.904569624793489</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.990072065500777</v>
+        <v>45.41129648826939</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.077320247841951</v>
       </c>
       <c r="I13">
-        <v>83.86508617553856</v>
+        <v>3.439323969009513</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>14.06369540452556</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.87246316787155</v>
       </c>
       <c r="L13">
-        <v>7.916458426894231</v>
+        <v>4.709217517376139</v>
       </c>
       <c r="M13">
-        <v>17.33463448048785</v>
+        <v>13.88608359152367</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.22942259677222</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.15181413493307</v>
+        <v>15.07182394012216</v>
       </c>
       <c r="C14">
-        <v>32.63971908018629</v>
+        <v>10.0840550215001</v>
       </c>
       <c r="D14">
-        <v>9.51499788160786</v>
+        <v>9.278540779160142</v>
       </c>
       <c r="E14">
-        <v>8.759385442358541</v>
+        <v>7.138214931664748</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.995026204369082</v>
+        <v>42.49178243232591</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.042850846545772</v>
       </c>
       <c r="I14">
-        <v>83.05170428282665</v>
+        <v>3.508300387780899</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.48570372452299</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.81840628817173</v>
       </c>
       <c r="L14">
-        <v>7.877827461742106</v>
+        <v>4.707949671649922</v>
       </c>
       <c r="M14">
-        <v>17.13018044716028</v>
+        <v>13.770024328747</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.63138499868202</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.92934394958898</v>
+        <v>15.01629709247774</v>
       </c>
       <c r="C15">
-        <v>32.40681983064506</v>
+        <v>9.984497182018091</v>
       </c>
       <c r="D15">
-        <v>9.448413267910096</v>
+        <v>9.112112588592455</v>
       </c>
       <c r="E15">
-        <v>8.711708558658041</v>
+        <v>6.9601056433027</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.998040419428627</v>
+        <v>41.68657394054792</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.274134807854306</v>
       </c>
       <c r="I15">
-        <v>82.55415819384908</v>
+        <v>3.542398016260409</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>13.33384500755</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.54149875331467</v>
       </c>
       <c r="L15">
-        <v>7.85435525726207</v>
+        <v>4.71390970224495</v>
       </c>
       <c r="M15">
-        <v>17.0051229322987</v>
+        <v>13.69948421449642</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.4605433868414</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.66253819290444</v>
+        <v>14.53686160158066</v>
       </c>
       <c r="C16">
-        <v>31.07454218818744</v>
+        <v>9.66478483630274</v>
       </c>
       <c r="D16">
-        <v>9.067005517601517</v>
+        <v>8.97313495169632</v>
       </c>
       <c r="E16">
-        <v>8.441415047393706</v>
+        <v>6.910098344584757</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.015040575762522</v>
+        <v>41.24720415109945</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.135193148261446</v>
       </c>
       <c r="I16">
-        <v>79.70982306672262</v>
+        <v>3.679581908806558</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.30415958291244</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.49818977352345</v>
       </c>
       <c r="L16">
-        <v>7.722561437306906</v>
+        <v>4.654794410938268</v>
       </c>
       <c r="M16">
-        <v>16.29011258253107</v>
+        <v>13.27714260456712</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.24410497807624</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.89058905715797</v>
+        <v>14.17090432724233</v>
       </c>
       <c r="C17">
-        <v>30.25750202626993</v>
+        <v>9.583951325922442</v>
       </c>
       <c r="D17">
-        <v>8.832662121362416</v>
+        <v>9.200206586030522</v>
       </c>
       <c r="E17">
-        <v>8.277702219844837</v>
+        <v>7.264100872919005</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.025263578787537</v>
+        <v>42.49055699419061</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.497190247891078</v>
       </c>
       <c r="I17">
-        <v>77.96776481172236</v>
+        <v>3.749370893040481</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.58798204949827</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.02187719328991</v>
       </c>
       <c r="L17">
-        <v>7.643938343250628</v>
+        <v>4.594734635164701</v>
       </c>
       <c r="M17">
-        <v>15.85190826893633</v>
+        <v>13.01046680324854</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.40592070907772</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.44778350412176</v>
+        <v>13.87404038164516</v>
       </c>
       <c r="C18">
-        <v>29.78700568082696</v>
+        <v>9.683619246194455</v>
       </c>
       <c r="D18">
-        <v>8.697560679349175</v>
+        <v>9.77351084428895</v>
       </c>
       <c r="E18">
-        <v>8.18413454406779</v>
+        <v>8.117569520936527</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.031081221980083</v>
+        <v>45.44334094741775</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.40902391521118</v>
       </c>
       <c r="I18">
-        <v>76.96566568145829</v>
+        <v>3.756567757726701</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>14.2038636700781</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.16105097669396</v>
       </c>
       <c r="L18">
-        <v>7.59946656710188</v>
+        <v>4.611672333881675</v>
       </c>
       <c r="M18">
-        <v>15.59965524760242</v>
+        <v>12.85137246079325</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.9110151648226</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.29800305698549</v>
+        <v>13.65139432112254</v>
       </c>
       <c r="C19">
-        <v>29.62755231465795</v>
+        <v>9.963688564557584</v>
       </c>
       <c r="D19">
-        <v>8.651748412984787</v>
+        <v>10.58078034514649</v>
       </c>
       <c r="E19">
-        <v>8.152541467332389</v>
+        <v>9.409837206554879</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.033041406352083</v>
+        <v>49.36491264141469</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.189821977996917</v>
       </c>
       <c r="I19">
-        <v>76.62625504563674</v>
+        <v>3.725874337587301</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>15.0157366868943</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.65936532336682</v>
       </c>
       <c r="L19">
-        <v>7.584532222425457</v>
+        <v>4.808244000521383</v>
       </c>
       <c r="M19">
-        <v>15.51417927728654</v>
+        <v>12.80208684250199</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.65328592228995</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.97262555367598</v>
+        <v>13.67587455305014</v>
       </c>
       <c r="C20">
-        <v>30.34452130384772</v>
+        <v>10.64083829297795</v>
       </c>
       <c r="D20">
-        <v>8.85763704008836</v>
+        <v>11.98097679049763</v>
       </c>
       <c r="E20">
-        <v>8.295064421411134</v>
+        <v>11.69762357893032</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.024182054833666</v>
+        <v>56.06434459351781</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.002612804265067</v>
       </c>
       <c r="I20">
-        <v>78.1531976842352</v>
+        <v>3.558944401420685</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>16.39883607476015</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>26.21586018508681</v>
       </c>
       <c r="L20">
-        <v>7.652228847821926</v>
+        <v>5.428666809077371</v>
       </c>
       <c r="M20">
-        <v>15.89856987246326</v>
+        <v>13.05182744695456</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.99462545591719</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.25866905098786</v>
+        <v>14.48272840705014</v>
       </c>
       <c r="C21">
-        <v>32.75147133576164</v>
+        <v>11.36129410481807</v>
       </c>
       <c r="D21">
-        <v>9.546937720761662</v>
+        <v>12.62289229382465</v>
       </c>
       <c r="E21">
-        <v>8.782307426803182</v>
+        <v>12.41917892433797</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.993575391101983</v>
+        <v>58.77642158506099</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.625281886026443</v>
       </c>
       <c r="I21">
-        <v>83.29046501856379</v>
+        <v>3.286585934008908</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>16.8974645239509</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>27.10511136184956</v>
       </c>
       <c r="L21">
-        <v>7.889134118230928</v>
+        <v>5.656831250113235</v>
       </c>
       <c r="M21">
-        <v>17.19019405671732</v>
+        <v>13.82633047363159</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.74522706928721</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.78041538383907</v>
+        <v>15.00399767656283</v>
       </c>
       <c r="C22">
-        <v>34.33520188253667</v>
+        <v>11.77056305793375</v>
       </c>
       <c r="D22">
-        <v>9.998919194272231</v>
+        <v>12.97450877151167</v>
       </c>
       <c r="E22">
-        <v>9.110316559761255</v>
+        <v>12.77632835802349</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.972699205203569</v>
+        <v>60.35278227340336</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.397453780562893</v>
       </c>
       <c r="I22">
-        <v>86.67486148250742</v>
+        <v>3.104672019869819</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>17.18719477282499</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.62487424044614</v>
       </c>
       <c r="L22">
-        <v>8.052293695338209</v>
+        <v>5.770662222721853</v>
       </c>
       <c r="M22">
-        <v>18.04121664279459</v>
+        <v>14.30806690911646</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.16608568071298</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.96469903021151</v>
+        <v>14.7341197026709</v>
       </c>
       <c r="C23">
-        <v>33.48805135553539</v>
+        <v>11.52810255915987</v>
       </c>
       <c r="D23">
-        <v>9.757304868035611</v>
+        <v>12.78871504939442</v>
       </c>
       <c r="E23">
-        <v>8.934124783625599</v>
+        <v>12.58864781676304</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.983939566296552</v>
+        <v>59.64224748437273</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.517244956205162</v>
       </c>
       <c r="I23">
-        <v>84.86443795294518</v>
+        <v>3.189926558733749</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>17.06071632737675</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.40831960743118</v>
       </c>
       <c r="L23">
-        <v>7.964353238460861</v>
+        <v>5.711222159413365</v>
       </c>
       <c r="M23">
-        <v>17.58587413437349</v>
+        <v>14.04898841106303</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.94007350762822</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.93553391045051</v>
+        <v>13.65599364493288</v>
       </c>
       <c r="C24">
-        <v>30.30518243744305</v>
+        <v>10.62154914689237</v>
       </c>
       <c r="D24">
-        <v>8.846347087427118</v>
+        <v>12.06384498334393</v>
       </c>
       <c r="E24">
-        <v>8.287213289113051</v>
+        <v>11.85190505910365</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.024671194627313</v>
+        <v>56.67600165169113</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.981231801875196</v>
       </c>
       <c r="I24">
-        <v>78.06936551927291</v>
+        <v>3.538737798518374</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>16.5312881660662</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>26.47588510721305</v>
       </c>
       <c r="L24">
-        <v>7.648478453969582</v>
+        <v>5.47933035325139</v>
       </c>
       <c r="M24">
-        <v>15.87747525542785</v>
+        <v>13.0338540922202</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.06240240392315</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.70988007889684</v>
+        <v>12.39334261764785</v>
       </c>
       <c r="C25">
-        <v>26.84664662549764</v>
+        <v>9.581580376708285</v>
       </c>
       <c r="D25">
-        <v>7.850594796238221</v>
+        <v>11.24177392334629</v>
       </c>
       <c r="E25">
-        <v>7.611193845827523</v>
+        <v>11.00897937489469</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.066306401501612</v>
+        <v>53.33517637142066</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.500099264907131</v>
       </c>
       <c r="I25">
-        <v>70.72918600523043</v>
+        <v>3.930592564498204</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>15.95048997146985</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>25.44094008420558</v>
       </c>
       <c r="L25">
-        <v>7.336043927851811</v>
+        <v>5.218299784687042</v>
       </c>
       <c r="M25">
-        <v>14.02434893958612</v>
+        <v>11.85243897477307</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>13.06256098015393</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.39485540154934</v>
+        <v>11.3137110699622</v>
       </c>
       <c r="C2">
-        <v>8.683338639342274</v>
+        <v>9.993685616302733</v>
       </c>
       <c r="D2">
-        <v>10.607064183085</v>
+        <v>10.65025000377675</v>
       </c>
       <c r="E2">
-        <v>10.35332634841641</v>
+        <v>10.44880818318357</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.12034370975908</v>
+        <v>44.92998359800912</v>
       </c>
       <c r="H2">
-        <v>3.895543057222508</v>
+        <v>3.717983338037349</v>
       </c>
       <c r="I2">
-        <v>4.208447893717011</v>
+        <v>3.916041510087002</v>
       </c>
       <c r="J2">
-        <v>15.59005524332657</v>
+        <v>14.22523682345903</v>
       </c>
       <c r="K2">
-        <v>24.81722223295494</v>
+        <v>21.78804689168634</v>
       </c>
       <c r="L2">
-        <v>5.019541702338943</v>
+        <v>17.01911373248497</v>
       </c>
       <c r="M2">
-        <v>10.89564480438055</v>
+        <v>15.34442525973327</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.099429910890614</v>
       </c>
       <c r="O2">
-        <v>12.27568299022388</v>
+        <v>11.15979696401805</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.42419813318621</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.65323602984049</v>
+        <v>10.61659643403874</v>
       </c>
       <c r="C3">
-        <v>8.099393985110497</v>
+        <v>9.353093285188471</v>
       </c>
       <c r="D3">
-        <v>10.15696680823411</v>
+        <v>10.21290045004935</v>
       </c>
       <c r="E3">
-        <v>9.881708639674436</v>
+        <v>10.00256648298415</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.36117149840291</v>
+        <v>43.8258226194674</v>
       </c>
       <c r="H3">
-        <v>4.177112134698987</v>
+        <v>3.978045228073599</v>
       </c>
       <c r="I3">
-        <v>4.419467224814636</v>
+        <v>4.09631061470497</v>
       </c>
       <c r="J3">
-        <v>15.30072541019332</v>
+        <v>14.01039498160521</v>
       </c>
       <c r="K3">
-        <v>24.29235194568333</v>
+        <v>21.529688050707</v>
       </c>
       <c r="L3">
-        <v>4.877244737289989</v>
+        <v>16.94403471639887</v>
       </c>
       <c r="M3">
-        <v>10.20578333517874</v>
+        <v>15.05290921784247</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>4.971569002078543</v>
       </c>
       <c r="O3">
-        <v>11.72151087402257</v>
+        <v>10.45754160655739</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.85579296533855</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.17018557171246</v>
+        <v>10.16303184724488</v>
       </c>
       <c r="C4">
-        <v>7.7577623718212</v>
+        <v>8.946891029671077</v>
       </c>
       <c r="D4">
-        <v>9.872160363225142</v>
+        <v>9.936568285757589</v>
       </c>
       <c r="E4">
-        <v>9.580445136863554</v>
+        <v>9.718076297805993</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>48.24655495205534</v>
+        <v>43.13194622119465</v>
       </c>
       <c r="H4">
-        <v>4.355911738603069</v>
+        <v>4.143350792569849</v>
       </c>
       <c r="I4">
-        <v>4.55390073057875</v>
+        <v>4.211535600724142</v>
       </c>
       <c r="J4">
-        <v>15.12028880967356</v>
+        <v>13.87451675597543</v>
       </c>
       <c r="K4">
-        <v>23.96167526635421</v>
+        <v>21.36593573011971</v>
       </c>
       <c r="L4">
-        <v>4.786887550028396</v>
+        <v>16.88966822488616</v>
       </c>
       <c r="M4">
-        <v>9.758897614878419</v>
+        <v>14.88463154189734</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>4.890414903451281</v>
       </c>
       <c r="O4">
-        <v>11.36988228080439</v>
+        <v>10.00249767365149</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.49464244686489</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.964160517487203</v>
+        <v>9.969864310897051</v>
       </c>
       <c r="C5">
-        <v>7.625814885441456</v>
+        <v>8.78660928721947</v>
       </c>
       <c r="D5">
-        <v>9.753775320946039</v>
+        <v>9.821848818151089</v>
       </c>
       <c r="E5">
-        <v>9.454184255182382</v>
+        <v>9.59904748937964</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.74420637005394</v>
+        <v>42.8118518719657</v>
       </c>
       <c r="H5">
-        <v>4.43071997534383</v>
+        <v>4.212516228653695</v>
       </c>
       <c r="I5">
-        <v>4.612447572752499</v>
+        <v>4.262512653148481</v>
       </c>
       <c r="J5">
-        <v>15.03802599934405</v>
+        <v>13.81125530978825</v>
       </c>
       <c r="K5">
-        <v>23.80735042901765</v>
+        <v>21.28363831997287</v>
       </c>
       <c r="L5">
-        <v>4.748984212818974</v>
+        <v>16.85326121540593</v>
       </c>
       <c r="M5">
-        <v>9.572288708165869</v>
+        <v>14.8094464743631</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>4.856399484046416</v>
       </c>
       <c r="O5">
-        <v>11.224769314485</v>
+        <v>9.812284183324307</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.34534463538287</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.926849627473908</v>
+        <v>9.935052305184797</v>
       </c>
       <c r="C6">
-        <v>7.615542775207404</v>
+        <v>8.770007136355424</v>
       </c>
       <c r="D6">
-        <v>9.733603071567099</v>
+        <v>9.802351885484065</v>
       </c>
       <c r="E6">
-        <v>9.4322751511931</v>
+        <v>9.578467578117019</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.61143423128063</v>
+        <v>42.71746074269455</v>
       </c>
       <c r="H6">
-        <v>4.443758811293997</v>
+        <v>4.224531715921017</v>
       </c>
       <c r="I6">
-        <v>4.625446166482132</v>
+        <v>4.274709170116574</v>
       </c>
       <c r="J6">
-        <v>15.01443736411394</v>
+        <v>13.79222607941047</v>
       </c>
       <c r="K6">
-        <v>23.76012216127567</v>
+        <v>21.25241735067767</v>
       </c>
       <c r="L6">
-        <v>4.742236765141829</v>
+        <v>16.83224419066122</v>
       </c>
       <c r="M6">
-        <v>9.542618121443724</v>
+        <v>14.78554904544638</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4.850365733387049</v>
       </c>
       <c r="O6">
-        <v>11.20160050151908</v>
+        <v>9.781816288578389</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.32132953467024</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.16028852885707</v>
+        <v>10.15620210687999</v>
       </c>
       <c r="C7">
-        <v>7.787393023852015</v>
+        <v>8.959759171951008</v>
       </c>
       <c r="D7">
-        <v>9.869506338509531</v>
+        <v>9.933979874695142</v>
       </c>
       <c r="E7">
-        <v>9.576681899604145</v>
+        <v>9.714367865739504</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>48.10792767828025</v>
+        <v>43.05747830064982</v>
       </c>
       <c r="H7">
-        <v>4.358331006877918</v>
+        <v>4.146265370352999</v>
       </c>
       <c r="I7">
-        <v>4.563187712244518</v>
+        <v>4.222706364809059</v>
       </c>
       <c r="J7">
-        <v>15.09236016015894</v>
+        <v>13.79295840510626</v>
       </c>
       <c r="K7">
-        <v>23.9013594458403</v>
+        <v>21.29418068844111</v>
       </c>
       <c r="L7">
-        <v>4.785278362108389</v>
+        <v>16.82994559590104</v>
       </c>
       <c r="M7">
-        <v>9.760858338802834</v>
+        <v>14.83590747150745</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4.888679800230141</v>
       </c>
       <c r="O7">
-        <v>11.37084603817589</v>
+        <v>10.00143423215048</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.4940642591543</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.13611587558495</v>
+        <v>11.07721279091438</v>
       </c>
       <c r="C8">
-        <v>8.516036812886991</v>
+        <v>9.771222614548714</v>
       </c>
       <c r="D8">
-        <v>10.45237409433638</v>
+        <v>10.49965352304932</v>
       </c>
       <c r="E8">
-        <v>10.19061281058389</v>
+        <v>10.29403797828447</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.35418606068484</v>
+        <v>44.54440903608354</v>
       </c>
       <c r="H8">
-        <v>3.993221702295688</v>
+        <v>3.810460271939258</v>
       </c>
       <c r="I8">
-        <v>4.291051284499218</v>
+        <v>3.992071743843932</v>
       </c>
       <c r="J8">
-        <v>15.45635133393566</v>
+        <v>13.93599643454663</v>
       </c>
       <c r="K8">
-        <v>24.5631334024002</v>
+        <v>21.56412596324802</v>
       </c>
       <c r="L8">
-        <v>4.969707551205191</v>
+        <v>16.88517000403321</v>
       </c>
       <c r="M8">
-        <v>10.66805668569165</v>
+        <v>15.14539863716237</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.053679825163107</v>
       </c>
       <c r="O8">
-        <v>12.09065119969074</v>
+        <v>10.91987084596128</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.23041712050862</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.84267999229873</v>
+        <v>12.68343117179328</v>
       </c>
       <c r="C9">
-        <v>9.896551652531176</v>
+        <v>11.25678724859031</v>
       </c>
       <c r="D9">
-        <v>11.52548604656334</v>
+        <v>11.54420848322184</v>
       </c>
       <c r="E9">
-        <v>11.30243511554941</v>
+        <v>11.34845237743026</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54.68821658940993</v>
+        <v>47.36246589079335</v>
       </c>
       <c r="H9">
-        <v>3.320421128792843</v>
+        <v>3.190592260565117</v>
       </c>
       <c r="I9">
-        <v>3.781054400061385</v>
+        <v>3.556355534441184</v>
       </c>
       <c r="J9">
-        <v>16.19193479988621</v>
+        <v>14.4331964220011</v>
       </c>
       <c r="K9">
-        <v>25.88969536046947</v>
+        <v>22.21864862832009</v>
       </c>
       <c r="L9">
-        <v>5.309457475735054</v>
+        <v>17.06458133047198</v>
       </c>
       <c r="M9">
-        <v>12.25556871902631</v>
+        <v>15.94676785280255</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.358919783127627</v>
       </c>
       <c r="O9">
-        <v>13.40188328796533</v>
+        <v>12.53432029212606</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.57235144460857</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.98276693114276</v>
+        <v>13.77229198029748</v>
       </c>
       <c r="C10">
-        <v>10.8051436564527</v>
+        <v>12.22316762898373</v>
       </c>
       <c r="D10">
-        <v>12.15007809988879</v>
+        <v>12.15126025610593</v>
       </c>
       <c r="E10">
-        <v>11.85414362548364</v>
+        <v>11.86470701231235</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.04957717476138</v>
+        <v>49.05641450350996</v>
       </c>
       <c r="H10">
-        <v>2.886022797335244</v>
+        <v>2.796309940038594</v>
       </c>
       <c r="I10">
-        <v>3.44235342564302</v>
+        <v>3.273722074383135</v>
       </c>
       <c r="J10">
-        <v>16.58092444137228</v>
+        <v>14.37029729721732</v>
       </c>
       <c r="K10">
-        <v>26.56290334474043</v>
+        <v>22.36482651342511</v>
       </c>
       <c r="L10">
-        <v>5.47832850542937</v>
+        <v>16.92690435321794</v>
       </c>
       <c r="M10">
-        <v>13.31086703006283</v>
+        <v>16.33622401532217</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.504503441698178</v>
       </c>
       <c r="O10">
-        <v>14.19710339837866</v>
+        <v>13.59195921844713</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.37789708626643</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.64101233764511</v>
+        <v>14.46510769986599</v>
       </c>
       <c r="C11">
-        <v>10.87412906750698</v>
+        <v>12.05719374197712</v>
       </c>
       <c r="D11">
-        <v>11.43852527516355</v>
+        <v>11.44044583965027</v>
       </c>
       <c r="E11">
-        <v>10.38906890542181</v>
+        <v>10.40559911088479</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.06096612010813</v>
+        <v>46.1376503055199</v>
       </c>
       <c r="H11">
-        <v>3.58709720573472</v>
+        <v>3.523297968038697</v>
       </c>
       <c r="I11">
-        <v>3.383040819037993</v>
+        <v>3.231959438983311</v>
       </c>
       <c r="J11">
-        <v>15.67786466001349</v>
+        <v>13.04053408874654</v>
       </c>
       <c r="K11">
-        <v>24.8524424680753</v>
+        <v>20.75862788596612</v>
       </c>
       <c r="L11">
-        <v>5.0705347578816</v>
+        <v>15.62892295062979</v>
       </c>
       <c r="M11">
-        <v>13.7610738301208</v>
+        <v>15.22447463241693</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.099807967846511</v>
       </c>
       <c r="O11">
-        <v>13.64250757864312</v>
+        <v>14.00058630610788</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.79779654723347</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.97852694712942</v>
+        <v>14.83613777204793</v>
       </c>
       <c r="C12">
-        <v>10.70920401740728</v>
+        <v>11.71109330820276</v>
       </c>
       <c r="D12">
-        <v>10.70351505891824</v>
+        <v>10.70936250786788</v>
       </c>
       <c r="E12">
-        <v>9.109085351714864</v>
+        <v>9.138929175420706</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>49.35807705868696</v>
+        <v>43.30839682801339</v>
       </c>
       <c r="H12">
-        <v>4.759418793500823</v>
+        <v>4.710114235547038</v>
       </c>
       <c r="I12">
-        <v>3.38182661482135</v>
+        <v>3.230221207027618</v>
       </c>
       <c r="J12">
-        <v>14.87704082010721</v>
+        <v>12.19444730637641</v>
       </c>
       <c r="K12">
-        <v>23.3661119707422</v>
+        <v>19.54475295810496</v>
       </c>
       <c r="L12">
-        <v>4.827508618988558</v>
+        <v>14.70896415844507</v>
       </c>
       <c r="M12">
-        <v>13.92389415848248</v>
+        <v>14.31814469482114</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4.863542078220608</v>
       </c>
       <c r="O12">
-        <v>12.99634919058762</v>
+        <v>14.13413827445612</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.13190992930354</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.09247679506294</v>
+        <v>14.98171229431057</v>
       </c>
       <c r="C13">
-        <v>10.38309197653327</v>
+        <v>11.24747884185926</v>
       </c>
       <c r="D13">
-        <v>9.889522638165243</v>
+        <v>9.902470405230416</v>
       </c>
       <c r="E13">
-        <v>7.904569624793489</v>
+        <v>7.95760452324223</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.41129648826939</v>
+        <v>40.09018389245411</v>
       </c>
       <c r="H13">
-        <v>6.077320247841951</v>
+        <v>6.032259560973016</v>
       </c>
       <c r="I13">
-        <v>3.439323969009513</v>
+        <v>3.27451752224421</v>
       </c>
       <c r="J13">
-        <v>14.06369540452556</v>
+        <v>11.70175257924799</v>
       </c>
       <c r="K13">
-        <v>21.87246316787155</v>
+        <v>18.52649516793917</v>
       </c>
       <c r="L13">
-        <v>4.709217517376139</v>
+        <v>13.98231364645558</v>
       </c>
       <c r="M13">
-        <v>13.88608359152367</v>
+        <v>13.50073040044954</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.755991563711804</v>
       </c>
       <c r="O13">
-        <v>12.22942259677222</v>
+        <v>14.0779160481557</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.34947403810173</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.07182394012216</v>
+        <v>14.98277671475933</v>
       </c>
       <c r="C14">
-        <v>10.0840550215001</v>
+        <v>10.86777319658581</v>
       </c>
       <c r="D14">
-        <v>9.278540779160142</v>
+        <v>9.298155633855503</v>
       </c>
       <c r="E14">
-        <v>7.138214931664748</v>
+        <v>7.213588059958433</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>42.49178243232591</v>
+        <v>37.63793078265867</v>
       </c>
       <c r="H14">
-        <v>7.042850846545772</v>
+        <v>6.99781117395228</v>
       </c>
       <c r="I14">
-        <v>3.508300387780899</v>
+        <v>3.329319116368812</v>
       </c>
       <c r="J14">
-        <v>13.48570372452299</v>
+        <v>11.48585129190688</v>
       </c>
       <c r="K14">
-        <v>20.81840628817173</v>
+        <v>17.88974043648905</v>
       </c>
       <c r="L14">
-        <v>4.707949671649922</v>
+        <v>13.54541726450601</v>
       </c>
       <c r="M14">
-        <v>13.770024328747</v>
+        <v>12.9639380216989</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.763392414323794</v>
       </c>
       <c r="O14">
-        <v>11.63138499868202</v>
+        <v>13.95311561772989</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.7417855036766</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.01629709247774</v>
+        <v>14.93266272384058</v>
       </c>
       <c r="C15">
-        <v>9.984497182018091</v>
+        <v>10.75493940945133</v>
       </c>
       <c r="D15">
-        <v>9.112112588592455</v>
+        <v>9.134206491598039</v>
       </c>
       <c r="E15">
-        <v>6.9601056433027</v>
+        <v>7.043432554442089</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>41.68657394054792</v>
+        <v>36.93590500255854</v>
       </c>
       <c r="H15">
-        <v>7.274134807854306</v>
+        <v>7.227885598694788</v>
       </c>
       <c r="I15">
-        <v>3.542398016260409</v>
+        <v>3.35792778405055</v>
       </c>
       <c r="J15">
-        <v>13.33384500755</v>
+        <v>11.47955532255538</v>
       </c>
       <c r="K15">
-        <v>20.54149875331467</v>
+        <v>17.75220523272849</v>
       </c>
       <c r="L15">
-        <v>4.71390970224495</v>
+        <v>13.45722723957875</v>
       </c>
       <c r="M15">
-        <v>13.69948421449642</v>
+        <v>12.83799438328867</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.772516935467459</v>
       </c>
       <c r="O15">
-        <v>11.4605433868414</v>
+        <v>13.88229841693317</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.56904051693014</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.53686160158066</v>
+        <v>14.45418308504763</v>
       </c>
       <c r="C16">
-        <v>9.66478483630274</v>
+        <v>10.49665741593191</v>
       </c>
       <c r="D16">
-        <v>8.97313495169632</v>
+        <v>9.002696891259994</v>
       </c>
       <c r="E16">
-        <v>6.910098344584757</v>
+        <v>7.013442714032283</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41.24720415109945</v>
+        <v>36.38063458121638</v>
       </c>
       <c r="H16">
-        <v>7.135193148261446</v>
+        <v>7.07636541957461</v>
       </c>
       <c r="I16">
-        <v>3.679581908806558</v>
+        <v>3.470078305093134</v>
       </c>
       <c r="J16">
-        <v>13.30415958291244</v>
+        <v>11.9311803893303</v>
       </c>
       <c r="K16">
-        <v>20.49818977352345</v>
+        <v>18.00079759876983</v>
       </c>
       <c r="L16">
-        <v>4.654794410938268</v>
+        <v>13.69217725019831</v>
       </c>
       <c r="M16">
-        <v>13.27714260456712</v>
+        <v>12.95078338478522</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.725085809055458</v>
       </c>
       <c r="O16">
-        <v>11.24410497807624</v>
+        <v>13.47747075071732</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.35733365181323</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.17090432724233</v>
+        <v>14.0799969299294</v>
       </c>
       <c r="C17">
-        <v>9.583951325922442</v>
+        <v>10.49519836871436</v>
       </c>
       <c r="D17">
-        <v>9.200206586030522</v>
+        <v>9.231615319711096</v>
       </c>
       <c r="E17">
-        <v>7.264100872919005</v>
+        <v>7.368211861529319</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.49055699419061</v>
+        <v>37.32319538260166</v>
       </c>
       <c r="H17">
-        <v>6.497190247891078</v>
+        <v>6.4264943362946</v>
       </c>
       <c r="I17">
-        <v>3.749370893040481</v>
+        <v>3.528857720292425</v>
       </c>
       <c r="J17">
-        <v>13.58798204949827</v>
+        <v>12.36052417137385</v>
       </c>
       <c r="K17">
-        <v>21.02187719328991</v>
+        <v>18.51055989738077</v>
       </c>
       <c r="L17">
-        <v>4.594734635164701</v>
+        <v>14.10380210182378</v>
       </c>
       <c r="M17">
-        <v>13.01046680324854</v>
+        <v>13.29868757960825</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.669352629522729</v>
       </c>
       <c r="O17">
-        <v>11.40592070907772</v>
+        <v>13.22654317620048</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.52711676892393</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.87404038164516</v>
+        <v>13.76170686673147</v>
       </c>
       <c r="C18">
-        <v>9.683619246194455</v>
+        <v>10.72034154092211</v>
       </c>
       <c r="D18">
-        <v>9.77351084428895</v>
+        <v>9.801811181624849</v>
       </c>
       <c r="E18">
-        <v>8.117569520936527</v>
+        <v>8.206018518080779</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>45.44334094741775</v>
+        <v>39.67338625360581</v>
       </c>
       <c r="H18">
-        <v>5.40902391521118</v>
+        <v>5.323878895373165</v>
       </c>
       <c r="I18">
-        <v>3.756567757726701</v>
+        <v>3.533845443566763</v>
       </c>
       <c r="J18">
-        <v>14.2038636700781</v>
+        <v>12.93382725569923</v>
       </c>
       <c r="K18">
-        <v>22.16105097669396</v>
+        <v>19.40016225819295</v>
       </c>
       <c r="L18">
-        <v>4.611672333881675</v>
+        <v>14.79305995365983</v>
       </c>
       <c r="M18">
-        <v>12.85137246079325</v>
+        <v>13.95383617401694</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>4.683300797584405</v>
       </c>
       <c r="O18">
-        <v>11.9110151648226</v>
+        <v>13.08754172071999</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.04634004619758</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.65139432112254</v>
+        <v>13.50848501297897</v>
       </c>
       <c r="C19">
-        <v>9.963688564557584</v>
+        <v>11.15464927200378</v>
       </c>
       <c r="D19">
-        <v>10.58078034514649</v>
+        <v>10.60255030259293</v>
       </c>
       <c r="E19">
-        <v>9.409837206554879</v>
+        <v>9.473909332642084</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.36491264141469</v>
+        <v>42.79604127076519</v>
       </c>
       <c r="H19">
-        <v>4.189821977996917</v>
+        <v>4.087632623789732</v>
       </c>
       <c r="I19">
-        <v>3.725874337587301</v>
+        <v>3.511840027768843</v>
       </c>
       <c r="J19">
-        <v>15.0157366868943</v>
+        <v>13.59581570505305</v>
       </c>
       <c r="K19">
-        <v>23.65936532336682</v>
+        <v>20.50683928080737</v>
       </c>
       <c r="L19">
-        <v>4.808244000521383</v>
+        <v>15.63808634825779</v>
       </c>
       <c r="M19">
-        <v>12.80208684250199</v>
+        <v>14.7874101025044</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>4.869234826769983</v>
       </c>
       <c r="O19">
-        <v>12.65328592228995</v>
+        <v>13.06044254531162</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.80655506352185</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.67587455305014</v>
+        <v>13.47507933949433</v>
       </c>
       <c r="C20">
-        <v>10.64083829297795</v>
+        <v>12.06349380209822</v>
       </c>
       <c r="D20">
-        <v>11.98097679049763</v>
+        <v>11.98731261873208</v>
       </c>
       <c r="E20">
-        <v>11.69762357893032</v>
+        <v>11.71891265104476</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.06434459351781</v>
+        <v>48.16252912010905</v>
       </c>
       <c r="H20">
-        <v>3.002612804265067</v>
+        <v>2.899354722458091</v>
       </c>
       <c r="I20">
-        <v>3.558944401420685</v>
+        <v>3.377835457604321</v>
       </c>
       <c r="J20">
-        <v>16.39883607476015</v>
+        <v>14.5074050450477</v>
       </c>
       <c r="K20">
-        <v>26.21586018508681</v>
+        <v>22.26275995037337</v>
       </c>
       <c r="L20">
-        <v>5.428666809077371</v>
+        <v>16.91498029093791</v>
       </c>
       <c r="M20">
-        <v>13.05182744695456</v>
+        <v>16.18314080516511</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.462409610761325</v>
       </c>
       <c r="O20">
-        <v>13.99462545591719</v>
+        <v>13.33812684256997</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.17533684956622</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.48272840705014</v>
+        <v>14.26642595110802</v>
       </c>
       <c r="C21">
-        <v>11.36129410481807</v>
+        <v>12.7050412058907</v>
       </c>
       <c r="D21">
-        <v>12.62289229382465</v>
+        <v>12.6139627979088</v>
       </c>
       <c r="E21">
-        <v>12.41917892433797</v>
+        <v>12.40750851436859</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.77642158506099</v>
+        <v>50.91876947592068</v>
       </c>
       <c r="H21">
-        <v>2.625281886026443</v>
+        <v>2.565880437719885</v>
       </c>
       <c r="I21">
-        <v>3.286585934008908</v>
+        <v>3.161548345001842</v>
       </c>
       <c r="J21">
-        <v>16.8974645239509</v>
+        <v>13.66279448991104</v>
       </c>
       <c r="K21">
-        <v>27.10511136184956</v>
+        <v>22.26663560214121</v>
       </c>
       <c r="L21">
-        <v>5.656831250113235</v>
+        <v>16.73258506172106</v>
       </c>
       <c r="M21">
-        <v>13.82633047363159</v>
+        <v>16.40683235587538</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.665857093275335</v>
       </c>
       <c r="O21">
-        <v>14.74522706928721</v>
+        <v>14.08310634343312</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.91857142789042</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.00399767656283</v>
+        <v>14.78160626018323</v>
       </c>
       <c r="C22">
-        <v>11.77056305793375</v>
+        <v>13.04650219737054</v>
       </c>
       <c r="D22">
-        <v>12.97450877151167</v>
+        <v>12.95669958015954</v>
       </c>
       <c r="E22">
-        <v>12.77632835802349</v>
+        <v>12.74562841229173</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.35278227340336</v>
+        <v>52.64109404166332</v>
       </c>
       <c r="H22">
-        <v>2.397453780562893</v>
+        <v>2.366054777360927</v>
       </c>
       <c r="I22">
-        <v>3.104672019869819</v>
+        <v>3.013239350466778</v>
       </c>
       <c r="J22">
-        <v>17.18719477282499</v>
+        <v>13.04649165252246</v>
       </c>
       <c r="K22">
-        <v>27.62487424044614</v>
+        <v>22.20593748354531</v>
       </c>
       <c r="L22">
-        <v>5.770662222721853</v>
+        <v>16.56835846610977</v>
       </c>
       <c r="M22">
-        <v>14.30806690911646</v>
+        <v>16.50880016435872</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.764898060762399</v>
       </c>
       <c r="O22">
-        <v>15.16608568071298</v>
+        <v>14.54287192423858</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.33191393753456</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.7341197026709</v>
+        <v>14.51005419038902</v>
       </c>
       <c r="C23">
-        <v>11.52810255915987</v>
+        <v>12.86595081019043</v>
       </c>
       <c r="D23">
-        <v>12.78871504939442</v>
+        <v>12.77549248545675</v>
       </c>
       <c r="E23">
-        <v>12.58864781676304</v>
+        <v>12.5679333354097</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.64224748437273</v>
+        <v>51.73193415603703</v>
       </c>
       <c r="H23">
-        <v>2.517244956205162</v>
+        <v>2.469871163290485</v>
       </c>
       <c r="I23">
-        <v>3.189926558733749</v>
+        <v>3.07744975576473</v>
       </c>
       <c r="J23">
-        <v>17.06071632737675</v>
+        <v>13.52128342260509</v>
       </c>
       <c r="K23">
-        <v>27.40831960743118</v>
+        <v>22.3406831632875</v>
       </c>
       <c r="L23">
-        <v>5.711222159413365</v>
+        <v>16.73061277719308</v>
       </c>
       <c r="M23">
-        <v>14.04898841106303</v>
+        <v>16.53371050679503</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.713583362092434</v>
       </c>
       <c r="O23">
-        <v>14.94007350762822</v>
+        <v>14.30055000611129</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.11277246874269</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.65599364493288</v>
+        <v>13.45086288542212</v>
       </c>
       <c r="C24">
-        <v>10.62154914689237</v>
+        <v>12.06451427798223</v>
       </c>
       <c r="D24">
-        <v>12.06384498334393</v>
+        <v>12.06935375680768</v>
       </c>
       <c r="E24">
-        <v>11.85190505910365</v>
+        <v>11.8710141679018</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.67600165169113</v>
+        <v>48.65994039698992</v>
       </c>
       <c r="H24">
-        <v>2.981231801875196</v>
+        <v>2.878887379327929</v>
       </c>
       <c r="I24">
-        <v>3.538737798518374</v>
+        <v>3.355513966380243</v>
       </c>
       <c r="J24">
-        <v>16.5312881660662</v>
+        <v>14.62410919702635</v>
       </c>
       <c r="K24">
-        <v>26.47588510721305</v>
+        <v>22.46803163952379</v>
       </c>
       <c r="L24">
-        <v>5.47933035325139</v>
+        <v>17.07301091696331</v>
       </c>
       <c r="M24">
-        <v>13.0338540922202</v>
+        <v>16.3358087821533</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.511559215349467</v>
       </c>
       <c r="O24">
-        <v>14.06240240392315</v>
+        <v>13.32305620593747</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.24548186580767</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.39334261764785</v>
+        <v>12.25856150009692</v>
       </c>
       <c r="C25">
-        <v>9.581580376708285</v>
+        <v>10.92280639927073</v>
       </c>
       <c r="D25">
-        <v>11.24177392334629</v>
+        <v>11.26810128008512</v>
       </c>
       <c r="E25">
-        <v>11.00897937489469</v>
+        <v>11.0704457340303</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>53.33517637142066</v>
+        <v>46.37879467943925</v>
       </c>
       <c r="H25">
-        <v>3.500099264907131</v>
+        <v>3.354739679471531</v>
       </c>
       <c r="I25">
-        <v>3.930592564498204</v>
+        <v>3.687360906782772</v>
       </c>
       <c r="J25">
-        <v>15.95048997146985</v>
+        <v>14.34172166427488</v>
       </c>
       <c r="K25">
-        <v>25.44094008420558</v>
+        <v>21.99749417001141</v>
       </c>
       <c r="L25">
-        <v>5.218299784687042</v>
+        <v>16.9851591491555</v>
       </c>
       <c r="M25">
-        <v>11.85243897477307</v>
+        <v>15.68663006363066</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.277534179286339</v>
       </c>
       <c r="O25">
-        <v>13.06256098015393</v>
+        <v>12.12676661998106</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>13.22629915433272</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
